--- a/Rohan/data/expense.xlsx
+++ b/Rohan/data/expense.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1c741db71da0312/Desktop/VS Code Github/python-project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1c741db71da0312/Desktop/VS Code Github/python-project/Rohan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_0EA9F2A4D3A0D5EEB0880DD04B5ED87656CC434E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67F076FA-B2DF-4F45-BBAB-4EF5800FDEC1}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_0EA9F2A4D3A0D5EEB0880DD04B5ED87656CC434E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{761EE11D-C41E-4691-854E-B5800CE3696E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,24 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="22">
-  <si>
-    <t>expenses_id</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>transaction_id</t>
-  </si>
   <si>
     <t>Transportation</t>
   </si>
@@ -86,6 +68,24 @@
   </si>
   <si>
     <t>Phone bill</t>
+  </si>
+  <si>
+    <t>Expenses ID</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
   </si>
 </sst>
 </file>
@@ -456,50 +456,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="H266" sqref="H266"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>-2.5</v>
+      </c>
+      <c r="E2" s="2">
         <v>45658</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>-2.5</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -509,17 +509,17 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>-3</v>
+      </c>
+      <c r="E3" s="2">
         <v>45658</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>-3</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -529,17 +529,17 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>-14</v>
+      </c>
+      <c r="E4" s="2">
         <v>45658</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>-14</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -549,17 +549,17 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>-19</v>
+      </c>
+      <c r="E5" s="2">
         <v>45658</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>-19</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -569,17 +569,17 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>-10</v>
+      </c>
+      <c r="E6" s="2">
         <v>45659</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>-10</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -589,17 +589,17 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>-2</v>
+      </c>
+      <c r="E7" s="2">
         <v>45660</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>-2</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -609,17 +609,17 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>-9</v>
+      </c>
+      <c r="E8" s="2">
         <v>45660</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>-9</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -629,17 +629,17 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>-11</v>
+      </c>
+      <c r="E9" s="2">
         <v>45660</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>-11</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -649,17 +649,17 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>-2</v>
+      </c>
+      <c r="E10" s="2">
         <v>45661</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>-2</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -669,17 +669,17 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>-10</v>
+      </c>
+      <c r="E11" s="2">
         <v>45662</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>-10</v>
       </c>
       <c r="F11">
         <v>11</v>
@@ -689,17 +689,17 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>-83</v>
+      </c>
+      <c r="E12" s="2">
         <v>45662</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>-83</v>
       </c>
       <c r="F12">
         <v>12</v>
@@ -709,17 +709,17 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>-2</v>
+      </c>
+      <c r="E13" s="2">
         <v>45663</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>-2</v>
       </c>
       <c r="F13">
         <v>13</v>
@@ -729,17 +729,17 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>-8</v>
+      </c>
+      <c r="E14" s="2">
         <v>45663</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>-8</v>
       </c>
       <c r="F14">
         <v>14</v>
@@ -749,17 +749,17 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>-15</v>
+      </c>
+      <c r="E15" s="2">
         <v>45664</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>-15</v>
       </c>
       <c r="F15">
         <v>15</v>
@@ -769,17 +769,17 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>-1.5</v>
+      </c>
+      <c r="E16" s="2">
         <v>45665</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>-1.5</v>
       </c>
       <c r="F16">
         <v>16</v>
@@ -789,17 +789,17 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>-9</v>
+      </c>
+      <c r="E17" s="2">
         <v>45665</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>-9</v>
       </c>
       <c r="F17">
         <v>17</v>
@@ -809,17 +809,17 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>-14</v>
+      </c>
+      <c r="E18" s="2">
         <v>45665</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18">
-        <v>-14</v>
       </c>
       <c r="F18">
         <v>18</v>
@@ -829,17 +829,17 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>-10</v>
+      </c>
+      <c r="E19" s="2">
         <v>45666</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>-10</v>
       </c>
       <c r="F19">
         <v>19</v>
@@ -849,17 +849,17 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>-11</v>
+      </c>
+      <c r="E20" s="2">
         <v>45666</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20">
-        <v>-11</v>
       </c>
       <c r="F20">
         <v>20</v>
@@ -869,17 +869,17 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>-8</v>
+      </c>
+      <c r="E21" s="2">
         <v>45667</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21">
-        <v>-8</v>
       </c>
       <c r="F21">
         <v>21</v>
@@ -889,17 +889,17 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>-13</v>
+      </c>
+      <c r="E22" s="2">
         <v>45667</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>-13</v>
       </c>
       <c r="F22">
         <v>22</v>
@@ -909,17 +909,17 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>-41</v>
+      </c>
+      <c r="E23" s="2">
         <v>45668</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23">
-        <v>-41</v>
       </c>
       <c r="F23">
         <v>23</v>
@@ -929,17 +929,17 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>-1.5</v>
+      </c>
+      <c r="E24" s="2">
         <v>45669</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>-1.5</v>
       </c>
       <c r="F24">
         <v>24</v>
@@ -949,17 +949,17 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>-2</v>
+      </c>
+      <c r="E25" s="2">
         <v>45669</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>-2</v>
       </c>
       <c r="F25">
         <v>25</v>
@@ -969,17 +969,17 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>-12</v>
+      </c>
+      <c r="E26" s="2">
         <v>45669</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>-12</v>
       </c>
       <c r="F26">
         <v>26</v>
@@ -989,17 +989,17 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>-18</v>
+      </c>
+      <c r="E27" s="2">
         <v>45670</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27">
-        <v>-18</v>
       </c>
       <c r="F27">
         <v>27</v>
@@ -1009,17 +1009,17 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>-2</v>
+      </c>
+      <c r="E28" s="2">
         <v>45672</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28">
-        <v>-2</v>
       </c>
       <c r="F28">
         <v>28</v>
@@ -1029,17 +1029,17 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>-2.5</v>
+      </c>
+      <c r="E29" s="2">
         <v>45672</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29">
-        <v>-2.5</v>
       </c>
       <c r="F29">
         <v>29</v>
@@ -1049,17 +1049,17 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>-9</v>
+      </c>
+      <c r="E30" s="2">
         <v>45672</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30">
-        <v>-9</v>
       </c>
       <c r="F30">
         <v>30</v>
@@ -1069,17 +1069,17 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>-20</v>
+      </c>
+      <c r="E31" s="2">
         <v>45672</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31">
-        <v>-20</v>
       </c>
       <c r="F31">
         <v>31</v>
@@ -1089,17 +1089,17 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>-2</v>
+      </c>
+      <c r="E32" s="2">
         <v>45674</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32">
-        <v>-2</v>
       </c>
       <c r="F32">
         <v>32</v>
@@ -1109,17 +1109,17 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>-18</v>
+      </c>
+      <c r="E33" s="2">
         <v>45674</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33">
-        <v>-18</v>
       </c>
       <c r="F33">
         <v>33</v>
@@ -1129,17 +1129,17 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>-2.5</v>
+      </c>
+      <c r="E34" s="2">
         <v>45675</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34">
-        <v>-2.5</v>
       </c>
       <c r="F34">
         <v>34</v>
@@ -1149,17 +1149,17 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>-13</v>
+      </c>
+      <c r="E35" s="2">
         <v>45675</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35">
-        <v>-13</v>
       </c>
       <c r="F35">
         <v>35</v>
@@ -1169,17 +1169,17 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>-13</v>
+      </c>
+      <c r="E36" s="2">
         <v>45675</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36">
-        <v>-13</v>
       </c>
       <c r="F36">
         <v>36</v>
@@ -1189,17 +1189,17 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>-20</v>
+      </c>
+      <c r="E37" s="2">
         <v>45675</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37">
-        <v>-20</v>
       </c>
       <c r="F37">
         <v>37</v>
@@ -1209,17 +1209,17 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>-1.5</v>
+      </c>
+      <c r="E38" s="2">
         <v>45676</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38">
-        <v>-1.5</v>
       </c>
       <c r="F38">
         <v>38</v>
@@ -1229,17 +1229,17 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>-2</v>
+      </c>
+      <c r="E39" s="2">
         <v>45676</v>
-      </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39">
-        <v>-2</v>
       </c>
       <c r="F39">
         <v>39</v>
@@ -1249,17 +1249,17 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>-8</v>
+      </c>
+      <c r="E40" s="2">
         <v>45676</v>
-      </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40">
-        <v>-8</v>
       </c>
       <c r="F40">
         <v>40</v>
@@ -1269,17 +1269,17 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>-14</v>
+      </c>
+      <c r="E41" s="2">
         <v>45676</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41">
-        <v>-14</v>
       </c>
       <c r="F41">
         <v>41</v>
@@ -1289,17 +1289,17 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>-2</v>
+      </c>
+      <c r="E42" s="2">
         <v>45677</v>
-      </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42">
-        <v>-2</v>
       </c>
       <c r="F42">
         <v>42</v>
@@ -1309,17 +1309,17 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>-14</v>
+      </c>
+      <c r="E43" s="2">
         <v>45677</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43">
-        <v>-14</v>
       </c>
       <c r="F43">
         <v>43</v>
@@ -1329,17 +1329,17 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>-2.5</v>
+      </c>
+      <c r="E44" s="2">
         <v>45678</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44">
-        <v>-2.5</v>
       </c>
       <c r="F44">
         <v>45</v>
@@ -1349,17 +1349,17 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>-11</v>
+      </c>
+      <c r="E45" s="2">
         <v>45678</v>
-      </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45">
-        <v>-11</v>
       </c>
       <c r="F45">
         <v>46</v>
@@ -1369,17 +1369,17 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>-13</v>
+      </c>
+      <c r="E46" s="2">
         <v>45679</v>
-      </c>
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46">
-        <v>-13</v>
       </c>
       <c r="F46">
         <v>47</v>
@@ -1389,17 +1389,17 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>-14</v>
+      </c>
+      <c r="E47" s="2">
         <v>45679</v>
-      </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47">
-        <v>-14</v>
       </c>
       <c r="F47">
         <v>48</v>
@@ -1409,17 +1409,17 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>-11</v>
+      </c>
+      <c r="E48" s="2">
         <v>45681</v>
-      </c>
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48">
-        <v>-11</v>
       </c>
       <c r="F48">
         <v>49</v>
@@ -1429,17 +1429,17 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>-12</v>
+      </c>
+      <c r="E49" s="2">
         <v>45681</v>
-      </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49">
-        <v>-12</v>
       </c>
       <c r="F49">
         <v>50</v>
@@ -1449,17 +1449,17 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>-32</v>
+      </c>
+      <c r="E50" s="2">
         <v>45681</v>
-      </c>
-      <c r="C50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50">
-        <v>-32</v>
       </c>
       <c r="F50">
         <v>51</v>
@@ -1469,17 +1469,17 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>-16</v>
+      </c>
+      <c r="E51" s="2">
         <v>45682</v>
-      </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51">
-        <v>-16</v>
       </c>
       <c r="F51">
         <v>52</v>
@@ -1489,17 +1489,17 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>-19</v>
+      </c>
+      <c r="E52" s="2">
         <v>45682</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52">
-        <v>-19</v>
       </c>
       <c r="F52">
         <v>53</v>
@@ -1509,17 +1509,17 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>-45</v>
+      </c>
+      <c r="E53" s="2">
         <v>45682</v>
-      </c>
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53">
-        <v>-45</v>
       </c>
       <c r="F53">
         <v>54</v>
@@ -1529,17 +1529,17 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>-2.5</v>
+      </c>
+      <c r="E54" s="2">
         <v>45683</v>
-      </c>
-      <c r="C54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54">
-        <v>-2.5</v>
       </c>
       <c r="F54">
         <v>55</v>
@@ -1549,17 +1549,17 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>-2.5</v>
+      </c>
+      <c r="E55" s="2">
         <v>45683</v>
-      </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55">
-        <v>-2.5</v>
       </c>
       <c r="F55">
         <v>56</v>
@@ -1569,17 +1569,17 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>-8</v>
+      </c>
+      <c r="E56" s="2">
         <v>45683</v>
-      </c>
-      <c r="C56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56">
-        <v>-8</v>
       </c>
       <c r="F56">
         <v>57</v>
@@ -1589,17 +1589,17 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>-9</v>
+      </c>
+      <c r="E57" s="2">
         <v>45684</v>
-      </c>
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57">
-        <v>-9</v>
       </c>
       <c r="F57">
         <v>58</v>
@@ -1609,17 +1609,17 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>-11</v>
+      </c>
+      <c r="E58" s="2">
         <v>45684</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58">
-        <v>-11</v>
       </c>
       <c r="F58">
         <v>59</v>
@@ -1629,17 +1629,17 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59">
+        <v>-72</v>
+      </c>
+      <c r="E59" s="2">
         <v>45684</v>
-      </c>
-      <c r="C59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59">
-        <v>-72</v>
       </c>
       <c r="F59">
         <v>60</v>
@@ -1649,17 +1649,17 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>-10</v>
+      </c>
+      <c r="E60" s="2">
         <v>45685</v>
-      </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60">
-        <v>-10</v>
       </c>
       <c r="F60">
         <v>61</v>
@@ -1669,17 +1669,17 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>-13</v>
+      </c>
+      <c r="E61" s="2">
         <v>45685</v>
-      </c>
-      <c r="C61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61">
-        <v>-13</v>
       </c>
       <c r="F61">
         <v>62</v>
@@ -1689,17 +1689,17 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>-56</v>
+      </c>
+      <c r="E62" s="2">
         <v>45685</v>
-      </c>
-      <c r="C62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62">
-        <v>-56</v>
       </c>
       <c r="F62">
         <v>63</v>
@@ -1709,17 +1709,17 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>-11</v>
+      </c>
+      <c r="E63" s="2">
         <v>45686</v>
-      </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63">
-        <v>-11</v>
       </c>
       <c r="F63">
         <v>64</v>
@@ -1729,17 +1729,17 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>-12</v>
+      </c>
+      <c r="E64" s="2">
         <v>45686</v>
-      </c>
-      <c r="C64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64">
-        <v>-12</v>
       </c>
       <c r="F64">
         <v>65</v>
@@ -1749,17 +1749,17 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>-17</v>
+      </c>
+      <c r="E65" s="2">
         <v>45686</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65">
-        <v>-17</v>
       </c>
       <c r="F65">
         <v>66</v>
@@ -1769,17 +1769,17 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>-12</v>
+      </c>
+      <c r="E66" s="2">
         <v>45687</v>
-      </c>
-      <c r="C66" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66">
-        <v>-12</v>
       </c>
       <c r="F66">
         <v>67</v>
@@ -1789,17 +1789,17 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>-1.5</v>
+      </c>
+      <c r="E67" s="2">
         <v>45688</v>
-      </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67">
-        <v>-1.5</v>
       </c>
       <c r="F67">
         <v>68</v>
@@ -1809,17 +1809,17 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>-800</v>
+      </c>
+      <c r="E68" s="2">
         <v>45688</v>
-      </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68">
-        <v>-800</v>
       </c>
       <c r="F68">
         <v>69</v>
@@ -1829,17 +1829,17 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>-14.99</v>
+      </c>
+      <c r="E69" s="2">
         <v>45688</v>
-      </c>
-      <c r="C69" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69">
-        <v>-14.99</v>
       </c>
       <c r="F69">
         <v>70</v>
@@ -1849,17 +1849,17 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70">
+        <v>-40.1</v>
+      </c>
+      <c r="E70" s="2">
         <v>45688</v>
-      </c>
-      <c r="C70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70">
-        <v>-40.1</v>
       </c>
       <c r="F70">
         <v>71</v>
@@ -1869,17 +1869,17 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71">
+        <v>-51.6</v>
+      </c>
+      <c r="E71" s="2">
         <v>45688</v>
-      </c>
-      <c r="C71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E71">
-        <v>-51.6</v>
       </c>
       <c r="F71">
         <v>72</v>
@@ -1889,17 +1889,17 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>-20</v>
+      </c>
+      <c r="E72" s="2">
         <v>45688</v>
-      </c>
-      <c r="C72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" t="s">
-        <v>21</v>
-      </c>
-      <c r="E72">
-        <v>-20</v>
       </c>
       <c r="F72">
         <v>73</v>
@@ -1909,17 +1909,17 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>-12</v>
+      </c>
+      <c r="E73" s="2">
         <v>45689</v>
-      </c>
-      <c r="C73" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73">
-        <v>-12</v>
       </c>
       <c r="F73">
         <v>75</v>
@@ -1929,17 +1929,17 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>-12</v>
+      </c>
+      <c r="E74" s="2">
         <v>45689</v>
-      </c>
-      <c r="C74" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74">
-        <v>-12</v>
       </c>
       <c r="F74">
         <v>76</v>
@@ -1949,17 +1949,17 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>-15</v>
+      </c>
+      <c r="E75" s="2">
         <v>45689</v>
-      </c>
-      <c r="C75" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75">
-        <v>-15</v>
       </c>
       <c r="F75">
         <v>77</v>
@@ -1969,17 +1969,17 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>-1.5</v>
+      </c>
+      <c r="E76" s="2">
         <v>45691</v>
-      </c>
-      <c r="C76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76">
-        <v>-1.5</v>
       </c>
       <c r="F76">
         <v>79</v>
@@ -1989,17 +1989,17 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>-18</v>
+      </c>
+      <c r="E77" s="2">
         <v>45691</v>
-      </c>
-      <c r="C77" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77">
-        <v>-18</v>
       </c>
       <c r="F77">
         <v>80</v>
@@ -2009,17 +2009,17 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>-11</v>
+      </c>
+      <c r="E78" s="2">
         <v>45692</v>
-      </c>
-      <c r="C78" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78">
-        <v>-11</v>
       </c>
       <c r="F78">
         <v>81</v>
@@ -2029,17 +2029,17 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>-14</v>
+      </c>
+      <c r="E79" s="2">
         <v>45692</v>
-      </c>
-      <c r="C79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79">
-        <v>-14</v>
       </c>
       <c r="F79">
         <v>82</v>
@@ -2049,17 +2049,17 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>-2</v>
+      </c>
+      <c r="E80" s="2">
         <v>45693</v>
-      </c>
-      <c r="C80" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80">
-        <v>-2</v>
       </c>
       <c r="F80">
         <v>83</v>
@@ -2069,17 +2069,17 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>-2.5</v>
+      </c>
+      <c r="E81" s="2">
         <v>45693</v>
-      </c>
-      <c r="C81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81">
-        <v>-2.5</v>
       </c>
       <c r="F81">
         <v>84</v>
@@ -2089,17 +2089,17 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>-19</v>
+      </c>
+      <c r="E82" s="2">
         <v>45694</v>
-      </c>
-      <c r="C82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82">
-        <v>-19</v>
       </c>
       <c r="F82">
         <v>85</v>
@@ -2109,17 +2109,17 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>-20</v>
+      </c>
+      <c r="E83" s="2">
         <v>45694</v>
-      </c>
-      <c r="C83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83">
-        <v>-20</v>
       </c>
       <c r="F83">
         <v>86</v>
@@ -2129,17 +2129,17 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>-47</v>
+      </c>
+      <c r="E84" s="2">
         <v>45695</v>
-      </c>
-      <c r="C84" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84">
-        <v>-47</v>
       </c>
       <c r="F84">
         <v>87</v>
@@ -2149,17 +2149,17 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>-3</v>
+      </c>
+      <c r="E85" s="2">
         <v>45696</v>
-      </c>
-      <c r="C85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85">
-        <v>-3</v>
       </c>
       <c r="F85">
         <v>88</v>
@@ -2169,17 +2169,17 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>-18</v>
+      </c>
+      <c r="E86" s="2">
         <v>45696</v>
-      </c>
-      <c r="C86" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86">
-        <v>-18</v>
       </c>
       <c r="F86">
         <v>89</v>
@@ -2189,17 +2189,17 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>-2.5</v>
+      </c>
+      <c r="E87" s="2">
         <v>45697</v>
-      </c>
-      <c r="C87" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87">
-        <v>-2.5</v>
       </c>
       <c r="F87">
         <v>90</v>
@@ -2209,17 +2209,17 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>-9</v>
+      </c>
+      <c r="E88" s="2">
         <v>45697</v>
-      </c>
-      <c r="C88" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88">
-        <v>-9</v>
       </c>
       <c r="F88">
         <v>91</v>
@@ -2229,17 +2229,17 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <v>-15</v>
+      </c>
+      <c r="E89" s="2">
         <v>45697</v>
-      </c>
-      <c r="C89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89">
-        <v>-15</v>
       </c>
       <c r="F89">
         <v>92</v>
@@ -2249,17 +2249,17 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>-2.5</v>
+      </c>
+      <c r="E90" s="2">
         <v>45698</v>
-      </c>
-      <c r="C90" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90">
-        <v>-2.5</v>
       </c>
       <c r="F90">
         <v>93</v>
@@ -2269,17 +2269,17 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>-8</v>
+      </c>
+      <c r="E91" s="2">
         <v>45698</v>
-      </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91">
-        <v>-8</v>
       </c>
       <c r="F91">
         <v>94</v>
@@ -2289,17 +2289,17 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>-11</v>
+      </c>
+      <c r="E92" s="2">
         <v>45698</v>
-      </c>
-      <c r="C92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92">
-        <v>-11</v>
       </c>
       <c r="F92">
         <v>95</v>
@@ -2309,17 +2309,17 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>-3</v>
+      </c>
+      <c r="E93" s="2">
         <v>45699</v>
-      </c>
-      <c r="C93" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93">
-        <v>-3</v>
       </c>
       <c r="F93">
         <v>96</v>
@@ -2329,17 +2329,17 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>-12</v>
+      </c>
+      <c r="E94" s="2">
         <v>45699</v>
-      </c>
-      <c r="C94" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94">
-        <v>-12</v>
       </c>
       <c r="F94">
         <v>97</v>
@@ -2349,17 +2349,17 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>-12</v>
+      </c>
+      <c r="E95" s="2">
         <v>45701</v>
-      </c>
-      <c r="C95" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95">
-        <v>-12</v>
       </c>
       <c r="F95">
         <v>98</v>
@@ -2369,17 +2369,17 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <v>-13</v>
+      </c>
+      <c r="E96" s="2">
         <v>45701</v>
-      </c>
-      <c r="C96" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96">
-        <v>-13</v>
       </c>
       <c r="F96">
         <v>99</v>
@@ -2389,17 +2389,17 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>-2</v>
+      </c>
+      <c r="E97" s="2">
         <v>45703</v>
-      </c>
-      <c r="C97" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97">
-        <v>-2</v>
       </c>
       <c r="F97">
         <v>101</v>
@@ -2409,17 +2409,17 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>-3</v>
+      </c>
+      <c r="E98" s="2">
         <v>45703</v>
-      </c>
-      <c r="C98" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98">
-        <v>-3</v>
       </c>
       <c r="F98">
         <v>102</v>
@@ -2429,17 +2429,17 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>-8</v>
+      </c>
+      <c r="E99" s="2">
         <v>45703</v>
-      </c>
-      <c r="C99" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99">
-        <v>-8</v>
       </c>
       <c r="F99">
         <v>103</v>
@@ -2449,17 +2449,17 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>-15</v>
+      </c>
+      <c r="E100" s="2">
         <v>45703</v>
-      </c>
-      <c r="C100" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100">
-        <v>-15</v>
       </c>
       <c r="F100">
         <v>104</v>
@@ -2469,17 +2469,17 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>-2.5</v>
+      </c>
+      <c r="E101" s="2">
         <v>45704</v>
-      </c>
-      <c r="C101" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101">
-        <v>-2.5</v>
       </c>
       <c r="F101">
         <v>105</v>
@@ -2489,17 +2489,17 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>-3</v>
+      </c>
+      <c r="E102" s="2">
         <v>45705</v>
-      </c>
-      <c r="C102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102">
-        <v>-3</v>
       </c>
       <c r="F102">
         <v>106</v>
@@ -2509,17 +2509,17 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103">
+        <v>-48</v>
+      </c>
+      <c r="E103" s="2">
         <v>45705</v>
-      </c>
-      <c r="C103" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103">
-        <v>-48</v>
       </c>
       <c r="F103">
         <v>107</v>
@@ -2529,17 +2529,17 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>-2</v>
+      </c>
+      <c r="E104" s="2">
         <v>45706</v>
-      </c>
-      <c r="C104" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104">
-        <v>-2</v>
       </c>
       <c r="F104">
         <v>108</v>
@@ -2549,17 +2549,17 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>-2.5</v>
+      </c>
+      <c r="E105" s="2">
         <v>45706</v>
-      </c>
-      <c r="C105" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105">
-        <v>-2.5</v>
       </c>
       <c r="F105">
         <v>109</v>
@@ -2569,17 +2569,17 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106">
+        <v>-87</v>
+      </c>
+      <c r="E106" s="2">
         <v>45706</v>
-      </c>
-      <c r="C106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106">
-        <v>-87</v>
       </c>
       <c r="F106">
         <v>110</v>
@@ -2589,17 +2589,17 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107">
+        <v>-37</v>
+      </c>
+      <c r="E107" s="2">
         <v>45707</v>
-      </c>
-      <c r="C107" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107">
-        <v>-37</v>
       </c>
       <c r="F107">
         <v>111</v>
@@ -2609,17 +2609,17 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>-2.5</v>
+      </c>
+      <c r="E108" s="2">
         <v>45708</v>
-      </c>
-      <c r="C108" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108">
-        <v>-2.5</v>
       </c>
       <c r="F108">
         <v>112</v>
@@ -2629,17 +2629,17 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109">
+        <v>-14</v>
+      </c>
+      <c r="E109" s="2">
         <v>45709</v>
-      </c>
-      <c r="C109" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109">
-        <v>-14</v>
       </c>
       <c r="F109">
         <v>113</v>
@@ -2649,17 +2649,17 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110">
+        <v>-14</v>
+      </c>
+      <c r="E110" s="2">
         <v>45709</v>
-      </c>
-      <c r="C110" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110">
-        <v>-14</v>
       </c>
       <c r="F110">
         <v>114</v>
@@ -2669,17 +2669,17 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111">
+        <v>-11</v>
+      </c>
+      <c r="E111" s="2">
         <v>45710</v>
-      </c>
-      <c r="C111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111">
-        <v>-11</v>
       </c>
       <c r="F111">
         <v>115</v>
@@ -2689,17 +2689,17 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>-15</v>
+      </c>
+      <c r="E112" s="2">
         <v>45710</v>
-      </c>
-      <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112">
-        <v>-15</v>
       </c>
       <c r="F112">
         <v>116</v>
@@ -2709,17 +2709,17 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113">
+        <v>-15</v>
+      </c>
+      <c r="E113" s="2">
         <v>45710</v>
-      </c>
-      <c r="C113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113">
-        <v>-15</v>
       </c>
       <c r="F113">
         <v>117</v>
@@ -2729,17 +2729,17 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114">
+        <v>-9</v>
+      </c>
+      <c r="E114" s="2">
         <v>45711</v>
-      </c>
-      <c r="C114" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114">
-        <v>-9</v>
       </c>
       <c r="F114">
         <v>118</v>
@@ -2749,17 +2749,17 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>-17</v>
+      </c>
+      <c r="E115" s="2">
         <v>45711</v>
-      </c>
-      <c r="C115" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115">
-        <v>-17</v>
       </c>
       <c r="F115">
         <v>119</v>
@@ -2769,17 +2769,17 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116">
+        <v>-76</v>
+      </c>
+      <c r="E116" s="2">
         <v>45711</v>
-      </c>
-      <c r="C116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" t="s">
-        <v>13</v>
-      </c>
-      <c r="E116">
-        <v>-76</v>
       </c>
       <c r="F116">
         <v>120</v>
@@ -2789,17 +2789,17 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>-1.5</v>
+      </c>
+      <c r="E117" s="2">
         <v>45712</v>
-      </c>
-      <c r="C117" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117">
-        <v>-1.5</v>
       </c>
       <c r="F117">
         <v>121</v>
@@ -2809,17 +2809,17 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>-2.5</v>
+      </c>
+      <c r="E118" s="2">
         <v>45712</v>
-      </c>
-      <c r="C118" t="s">
-        <v>6</v>
-      </c>
-      <c r="D118" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118">
-        <v>-2.5</v>
       </c>
       <c r="F118">
         <v>122</v>
@@ -2829,17 +2829,17 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>-3</v>
+      </c>
+      <c r="E119" s="2">
         <v>45713</v>
-      </c>
-      <c r="C119" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119">
-        <v>-3</v>
       </c>
       <c r="F119">
         <v>123</v>
@@ -2849,17 +2849,17 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>-1.5</v>
+      </c>
+      <c r="E120" s="2">
         <v>45714</v>
-      </c>
-      <c r="C120" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120">
-        <v>-1.5</v>
       </c>
       <c r="F120">
         <v>124</v>
@@ -2869,17 +2869,17 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>-11</v>
+      </c>
+      <c r="E121" s="2">
         <v>45714</v>
-      </c>
-      <c r="C121" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121">
-        <v>-11</v>
       </c>
       <c r="F121">
         <v>125</v>
@@ -2889,17 +2889,17 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>-2.5</v>
+      </c>
+      <c r="E122" s="2">
         <v>45716</v>
-      </c>
-      <c r="C122" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122">
-        <v>-2.5</v>
       </c>
       <c r="F122">
         <v>126</v>
@@ -2909,17 +2909,17 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>-15</v>
+      </c>
+      <c r="E123" s="2">
         <v>45716</v>
-      </c>
-      <c r="C123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" t="s">
-        <v>10</v>
-      </c>
-      <c r="E123">
-        <v>-15</v>
       </c>
       <c r="F123">
         <v>127</v>
@@ -2929,17 +2929,17 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>-20</v>
+      </c>
+      <c r="E124" s="2">
         <v>45716</v>
-      </c>
-      <c r="C124" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124">
-        <v>-20</v>
       </c>
       <c r="F124">
         <v>128</v>
@@ -2949,17 +2949,17 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125">
+        <v>-800</v>
+      </c>
+      <c r="E125" s="2">
         <v>45716</v>
-      </c>
-      <c r="C125" t="s">
-        <v>14</v>
-      </c>
-      <c r="D125" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125">
-        <v>-800</v>
       </c>
       <c r="F125">
         <v>129</v>
@@ -2969,17 +2969,17 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126">
+        <v>-14.99</v>
+      </c>
+      <c r="E126" s="2">
         <v>45716</v>
-      </c>
-      <c r="C126" t="s">
-        <v>16</v>
-      </c>
-      <c r="D126" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126">
-        <v>-14.99</v>
       </c>
       <c r="F126">
         <v>130</v>
@@ -2989,17 +2989,17 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127">
+        <v>-40.700000000000003</v>
+      </c>
+      <c r="E127" s="2">
         <v>45716</v>
-      </c>
-      <c r="C127" t="s">
-        <v>18</v>
-      </c>
-      <c r="D127" t="s">
-        <v>19</v>
-      </c>
-      <c r="E127">
-        <v>-40.700000000000003</v>
       </c>
       <c r="F127">
         <v>131</v>
@@ -3009,17 +3009,17 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128">
+        <v>-49</v>
+      </c>
+      <c r="E128" s="2">
         <v>45716</v>
-      </c>
-      <c r="C128" t="s">
-        <v>18</v>
-      </c>
-      <c r="D128" t="s">
-        <v>20</v>
-      </c>
-      <c r="E128">
-        <v>-49</v>
       </c>
       <c r="F128">
         <v>132</v>
@@ -3029,17 +3029,17 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129">
+        <v>-20</v>
+      </c>
+      <c r="E129" s="2">
         <v>45716</v>
-      </c>
-      <c r="C129" t="s">
-        <v>18</v>
-      </c>
-      <c r="D129" t="s">
-        <v>21</v>
-      </c>
-      <c r="E129">
-        <v>-20</v>
       </c>
       <c r="F129">
         <v>133</v>
@@ -3049,17 +3049,17 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>-3</v>
+      </c>
+      <c r="E130" s="2">
         <v>45717</v>
-      </c>
-      <c r="C130" t="s">
-        <v>6</v>
-      </c>
-      <c r="D130" t="s">
-        <v>7</v>
-      </c>
-      <c r="E130">
-        <v>-3</v>
       </c>
       <c r="F130">
         <v>135</v>
@@ -3069,17 +3069,17 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>-14</v>
+      </c>
+      <c r="E131" s="2">
         <v>45717</v>
-      </c>
-      <c r="C131" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131">
-        <v>-14</v>
       </c>
       <c r="F131">
         <v>136</v>
@@ -3089,17 +3089,17 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>-3</v>
+      </c>
+      <c r="E132" s="2">
         <v>45718</v>
-      </c>
-      <c r="C132" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132">
-        <v>-3</v>
       </c>
       <c r="F132">
         <v>138</v>
@@ -3109,17 +3109,17 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133">
+        <v>-9</v>
+      </c>
+      <c r="E133" s="2">
         <v>45719</v>
-      </c>
-      <c r="C133" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133">
-        <v>-9</v>
       </c>
       <c r="F133">
         <v>139</v>
@@ -3129,17 +3129,17 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134">
+        <v>-37</v>
+      </c>
+      <c r="E134" s="2">
         <v>45719</v>
-      </c>
-      <c r="C134" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" t="s">
-        <v>13</v>
-      </c>
-      <c r="E134">
-        <v>-37</v>
       </c>
       <c r="F134">
         <v>140</v>
@@ -3149,17 +3149,17 @@
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135">
+        <v>-98</v>
+      </c>
+      <c r="E135" s="2">
         <v>45719</v>
-      </c>
-      <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" t="s">
-        <v>13</v>
-      </c>
-      <c r="E135">
-        <v>-98</v>
       </c>
       <c r="F135">
         <v>141</v>
@@ -3169,17 +3169,17 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>-2.5</v>
+      </c>
+      <c r="E136" s="2">
         <v>45720</v>
-      </c>
-      <c r="C136" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" t="s">
-        <v>7</v>
-      </c>
-      <c r="E136">
-        <v>-2.5</v>
       </c>
       <c r="F136">
         <v>142</v>
@@ -3189,17 +3189,17 @@
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>-2.5</v>
+      </c>
+      <c r="E137" s="2">
         <v>45720</v>
-      </c>
-      <c r="C137" t="s">
-        <v>6</v>
-      </c>
-      <c r="D137" t="s">
-        <v>7</v>
-      </c>
-      <c r="E137">
-        <v>-2.5</v>
       </c>
       <c r="F137">
         <v>143</v>
@@ -3209,17 +3209,17 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>-3</v>
+      </c>
+      <c r="E138" s="2">
         <v>45720</v>
-      </c>
-      <c r="C138" t="s">
-        <v>6</v>
-      </c>
-      <c r="D138" t="s">
-        <v>7</v>
-      </c>
-      <c r="E138">
-        <v>-3</v>
       </c>
       <c r="F138">
         <v>144</v>
@@ -3229,17 +3229,17 @@
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139">
+        <v>-10</v>
+      </c>
+      <c r="E139" s="2">
         <v>45720</v>
-      </c>
-      <c r="C139" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" t="s">
-        <v>10</v>
-      </c>
-      <c r="E139">
-        <v>-10</v>
       </c>
       <c r="F139">
         <v>145</v>
@@ -3249,17 +3249,17 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>-2</v>
+      </c>
+      <c r="E140" s="2">
         <v>45721</v>
-      </c>
-      <c r="C140" t="s">
-        <v>6</v>
-      </c>
-      <c r="D140" t="s">
-        <v>7</v>
-      </c>
-      <c r="E140">
-        <v>-2</v>
       </c>
       <c r="F140">
         <v>146</v>
@@ -3269,17 +3269,17 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>-1.5</v>
+      </c>
+      <c r="E141" s="2">
         <v>45722</v>
-      </c>
-      <c r="C141" t="s">
-        <v>6</v>
-      </c>
-      <c r="D141" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141">
-        <v>-1.5</v>
       </c>
       <c r="F141">
         <v>147</v>
@@ -3289,17 +3289,17 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>-1.5</v>
+      </c>
+      <c r="E142" s="2">
         <v>45722</v>
-      </c>
-      <c r="C142" t="s">
-        <v>6</v>
-      </c>
-      <c r="D142" t="s">
-        <v>7</v>
-      </c>
-      <c r="E142">
-        <v>-1.5</v>
       </c>
       <c r="F142">
         <v>148</v>
@@ -3309,17 +3309,17 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>-1.5</v>
+      </c>
+      <c r="E143" s="2">
         <v>45723</v>
-      </c>
-      <c r="C143" t="s">
-        <v>6</v>
-      </c>
-      <c r="D143" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143">
-        <v>-1.5</v>
       </c>
       <c r="F143">
         <v>149</v>
@@ -3329,17 +3329,17 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144">
+        <v>-56</v>
+      </c>
+      <c r="E144" s="2">
         <v>45723</v>
-      </c>
-      <c r="C144" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" t="s">
-        <v>13</v>
-      </c>
-      <c r="E144">
-        <v>-56</v>
       </c>
       <c r="F144">
         <v>150</v>
@@ -3349,17 +3349,17 @@
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>-15</v>
+      </c>
+      <c r="E145" s="2">
         <v>45724</v>
-      </c>
-      <c r="C145" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" t="s">
-        <v>10</v>
-      </c>
-      <c r="E145">
-        <v>-15</v>
       </c>
       <c r="F145">
         <v>151</v>
@@ -3369,17 +3369,17 @@
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>-1.5</v>
+      </c>
+      <c r="E146" s="2">
         <v>45726</v>
-      </c>
-      <c r="C146" t="s">
-        <v>6</v>
-      </c>
-      <c r="D146" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146">
-        <v>-1.5</v>
       </c>
       <c r="F146">
         <v>152</v>
@@ -3389,17 +3389,17 @@
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147">
+        <v>-8</v>
+      </c>
+      <c r="E147" s="2">
         <v>45726</v>
-      </c>
-      <c r="C147" t="s">
-        <v>6</v>
-      </c>
-      <c r="D147" t="s">
-        <v>11</v>
-      </c>
-      <c r="E147">
-        <v>-8</v>
       </c>
       <c r="F147">
         <v>153</v>
@@ -3409,17 +3409,17 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148">
+        <v>-12</v>
+      </c>
+      <c r="E148" s="2">
         <v>45726</v>
-      </c>
-      <c r="C148" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" t="s">
-        <v>12</v>
-      </c>
-      <c r="E148">
-        <v>-12</v>
       </c>
       <c r="F148">
         <v>154</v>
@@ -3429,17 +3429,17 @@
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149">
+        <v>-20</v>
+      </c>
+      <c r="E149" s="2">
         <v>45726</v>
-      </c>
-      <c r="C149" t="s">
-        <v>6</v>
-      </c>
-      <c r="D149" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149">
-        <v>-20</v>
       </c>
       <c r="F149">
         <v>155</v>
@@ -3449,17 +3449,17 @@
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150">
+        <v>-11</v>
+      </c>
+      <c r="E150" s="2">
         <v>45727</v>
-      </c>
-      <c r="C150" t="s">
-        <v>6</v>
-      </c>
-      <c r="D150" t="s">
-        <v>11</v>
-      </c>
-      <c r="E150">
-        <v>-11</v>
       </c>
       <c r="F150">
         <v>156</v>
@@ -3469,17 +3469,17 @@
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151">
+        <v>-14</v>
+      </c>
+      <c r="E151" s="2">
         <v>45727</v>
-      </c>
-      <c r="C151" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151">
-        <v>-14</v>
       </c>
       <c r="F151">
         <v>157</v>
@@ -3489,17 +3489,17 @@
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152">
+        <v>-9</v>
+      </c>
+      <c r="E152" s="2">
         <v>45728</v>
-      </c>
-      <c r="C152" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" t="s">
-        <v>10</v>
-      </c>
-      <c r="E152">
-        <v>-9</v>
       </c>
       <c r="F152">
         <v>158</v>
@@ -3509,17 +3509,17 @@
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153">
+        <v>-10</v>
+      </c>
+      <c r="E153" s="2">
         <v>45728</v>
-      </c>
-      <c r="C153" t="s">
-        <v>6</v>
-      </c>
-      <c r="D153" t="s">
-        <v>11</v>
-      </c>
-      <c r="E153">
-        <v>-10</v>
       </c>
       <c r="F153">
         <v>159</v>
@@ -3529,17 +3529,17 @@
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154">
+        <v>-20</v>
+      </c>
+      <c r="E154" s="2">
         <v>45728</v>
-      </c>
-      <c r="C154" t="s">
-        <v>6</v>
-      </c>
-      <c r="D154" t="s">
-        <v>11</v>
-      </c>
-      <c r="E154">
-        <v>-20</v>
       </c>
       <c r="F154">
         <v>160</v>
@@ -3549,17 +3549,17 @@
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155">
+        <v>-3</v>
+      </c>
+      <c r="E155" s="2">
         <v>45729</v>
-      </c>
-      <c r="C155" t="s">
-        <v>6</v>
-      </c>
-      <c r="D155" t="s">
-        <v>8</v>
-      </c>
-      <c r="E155">
-        <v>-3</v>
       </c>
       <c r="F155">
         <v>161</v>
@@ -3569,17 +3569,17 @@
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156">
+        <v>-80</v>
+      </c>
+      <c r="E156" s="2">
         <v>45729</v>
-      </c>
-      <c r="C156" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" t="s">
-        <v>13</v>
-      </c>
-      <c r="E156">
-        <v>-80</v>
       </c>
       <c r="F156">
         <v>162</v>
@@ -3589,17 +3589,17 @@
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157">
+        <v>-97</v>
+      </c>
+      <c r="E157" s="2">
         <v>45730</v>
-      </c>
-      <c r="C157" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" t="s">
-        <v>13</v>
-      </c>
-      <c r="E157">
-        <v>-97</v>
       </c>
       <c r="F157">
         <v>163</v>
@@ -3609,17 +3609,17 @@
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>-1.5</v>
+      </c>
+      <c r="E158" s="2">
         <v>45732</v>
-      </c>
-      <c r="C158" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" t="s">
-        <v>7</v>
-      </c>
-      <c r="E158">
-        <v>-1.5</v>
       </c>
       <c r="F158">
         <v>164</v>
@@ -3629,17 +3629,17 @@
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159">
+        <v>-11</v>
+      </c>
+      <c r="E159" s="2">
         <v>45732</v>
-      </c>
-      <c r="C159" t="s">
-        <v>6</v>
-      </c>
-      <c r="D159" t="s">
-        <v>11</v>
-      </c>
-      <c r="E159">
-        <v>-11</v>
       </c>
       <c r="F159">
         <v>165</v>
@@ -3649,17 +3649,17 @@
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160">
+        <v>-12</v>
+      </c>
+      <c r="E160" s="2">
         <v>45732</v>
-      </c>
-      <c r="C160" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" t="s">
-        <v>10</v>
-      </c>
-      <c r="E160">
-        <v>-12</v>
       </c>
       <c r="F160">
         <v>166</v>
@@ -3669,17 +3669,17 @@
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>-10</v>
+      </c>
+      <c r="E161" s="2">
         <v>45733</v>
-      </c>
-      <c r="C161" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" t="s">
-        <v>10</v>
-      </c>
-      <c r="E161">
-        <v>-10</v>
       </c>
       <c r="F161">
         <v>167</v>
@@ -3689,17 +3689,17 @@
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162">
+        <v>-98</v>
+      </c>
+      <c r="E162" s="2">
         <v>45733</v>
-      </c>
-      <c r="C162" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" t="s">
-        <v>13</v>
-      </c>
-      <c r="E162">
-        <v>-98</v>
       </c>
       <c r="F162">
         <v>168</v>
@@ -3709,17 +3709,17 @@
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>-2.5</v>
+      </c>
+      <c r="E163" s="2">
         <v>45734</v>
-      </c>
-      <c r="C163" t="s">
-        <v>6</v>
-      </c>
-      <c r="D163" t="s">
-        <v>8</v>
-      </c>
-      <c r="E163">
-        <v>-2.5</v>
       </c>
       <c r="F163">
         <v>169</v>
@@ -3729,17 +3729,17 @@
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>-3</v>
+      </c>
+      <c r="E164" s="2">
         <v>45734</v>
-      </c>
-      <c r="C164" t="s">
-        <v>6</v>
-      </c>
-      <c r="D164" t="s">
-        <v>8</v>
-      </c>
-      <c r="E164">
-        <v>-3</v>
       </c>
       <c r="F164">
         <v>170</v>
@@ -3749,17 +3749,17 @@
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165">
+        <v>-8</v>
+      </c>
+      <c r="E165" s="2">
         <v>45734</v>
-      </c>
-      <c r="C165" t="s">
-        <v>6</v>
-      </c>
-      <c r="D165" t="s">
-        <v>11</v>
-      </c>
-      <c r="E165">
-        <v>-8</v>
       </c>
       <c r="F165">
         <v>171</v>
@@ -3769,17 +3769,17 @@
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166">
+        <v>-9</v>
+      </c>
+      <c r="E166" s="2">
         <v>45734</v>
-      </c>
-      <c r="C166" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" t="s">
-        <v>10</v>
-      </c>
-      <c r="E166">
-        <v>-9</v>
       </c>
       <c r="F166">
         <v>172</v>
@@ -3789,17 +3789,17 @@
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167">
+        <v>-11</v>
+      </c>
+      <c r="E167" s="2">
         <v>45734</v>
-      </c>
-      <c r="C167" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" t="s">
-        <v>12</v>
-      </c>
-      <c r="E167">
-        <v>-11</v>
       </c>
       <c r="F167">
         <v>173</v>
@@ -3809,17 +3809,17 @@
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168">
+        <v>-14</v>
+      </c>
+      <c r="E168" s="2">
         <v>45734</v>
-      </c>
-      <c r="C168" t="s">
-        <v>6</v>
-      </c>
-      <c r="D168" t="s">
-        <v>11</v>
-      </c>
-      <c r="E168">
-        <v>-14</v>
       </c>
       <c r="F168">
         <v>174</v>
@@ -3829,17 +3829,17 @@
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>-2.5</v>
+      </c>
+      <c r="E169" s="2">
         <v>45735</v>
-      </c>
-      <c r="C169" t="s">
-        <v>6</v>
-      </c>
-      <c r="D169" t="s">
-        <v>7</v>
-      </c>
-      <c r="E169">
-        <v>-2.5</v>
       </c>
       <c r="F169">
         <v>175</v>
@@ -3849,17 +3849,17 @@
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>-3</v>
+      </c>
+      <c r="E170" s="2">
         <v>45735</v>
-      </c>
-      <c r="C170" t="s">
-        <v>6</v>
-      </c>
-      <c r="D170" t="s">
-        <v>7</v>
-      </c>
-      <c r="E170">
-        <v>-3</v>
       </c>
       <c r="F170">
         <v>176</v>
@@ -3869,17 +3869,17 @@
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>-2.5</v>
+      </c>
+      <c r="E171" s="2">
         <v>45736</v>
-      </c>
-      <c r="C171" t="s">
-        <v>6</v>
-      </c>
-      <c r="D171" t="s">
-        <v>7</v>
-      </c>
-      <c r="E171">
-        <v>-2.5</v>
       </c>
       <c r="F171">
         <v>177</v>
@@ -3889,17 +3889,17 @@
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172">
+        <v>-8</v>
+      </c>
+      <c r="E172" s="2">
         <v>45736</v>
-      </c>
-      <c r="C172" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" t="s">
-        <v>10</v>
-      </c>
-      <c r="E172">
-        <v>-8</v>
       </c>
       <c r="F172">
         <v>178</v>
@@ -3909,17 +3909,17 @@
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>-1.5</v>
+      </c>
+      <c r="E173" s="2">
         <v>45737</v>
-      </c>
-      <c r="C173" t="s">
-        <v>6</v>
-      </c>
-      <c r="D173" t="s">
-        <v>7</v>
-      </c>
-      <c r="E173">
-        <v>-1.5</v>
       </c>
       <c r="F173">
         <v>179</v>
@@ -3929,17 +3929,17 @@
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>-2</v>
+      </c>
+      <c r="E174" s="2">
         <v>45737</v>
-      </c>
-      <c r="C174" t="s">
-        <v>6</v>
-      </c>
-      <c r="D174" t="s">
-        <v>7</v>
-      </c>
-      <c r="E174">
-        <v>-2</v>
       </c>
       <c r="F174">
         <v>180</v>
@@ -3949,17 +3949,17 @@
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175">
+        <v>-10</v>
+      </c>
+      <c r="E175" s="2">
         <v>45737</v>
-      </c>
-      <c r="C175" t="s">
-        <v>6</v>
-      </c>
-      <c r="D175" t="s">
-        <v>11</v>
-      </c>
-      <c r="E175">
-        <v>-10</v>
       </c>
       <c r="F175">
         <v>181</v>
@@ -3969,17 +3969,17 @@
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176">
+        <v>-55</v>
+      </c>
+      <c r="E176" s="2">
         <v>45737</v>
-      </c>
-      <c r="C176" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" t="s">
-        <v>13</v>
-      </c>
-      <c r="E176">
-        <v>-55</v>
       </c>
       <c r="F176">
         <v>182</v>
@@ -3989,17 +3989,17 @@
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177">
+        <v>-18</v>
+      </c>
+      <c r="E177" s="2">
         <v>45738</v>
-      </c>
-      <c r="C177" t="s">
-        <v>6</v>
-      </c>
-      <c r="D177" t="s">
-        <v>11</v>
-      </c>
-      <c r="E177">
-        <v>-18</v>
       </c>
       <c r="F177">
         <v>183</v>
@@ -4009,17 +4009,17 @@
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178">
+        <v>-37</v>
+      </c>
+      <c r="E178" s="2">
         <v>45738</v>
-      </c>
-      <c r="C178" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" t="s">
-        <v>13</v>
-      </c>
-      <c r="E178">
-        <v>-37</v>
       </c>
       <c r="F178">
         <v>184</v>
@@ -4029,17 +4029,17 @@
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179">
+        <v>-2.5</v>
+      </c>
+      <c r="E179" s="2">
         <v>45740</v>
-      </c>
-      <c r="C179" t="s">
-        <v>6</v>
-      </c>
-      <c r="D179" t="s">
-        <v>8</v>
-      </c>
-      <c r="E179">
-        <v>-2.5</v>
       </c>
       <c r="F179">
         <v>185</v>
@@ -4049,17 +4049,17 @@
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>-3</v>
+      </c>
+      <c r="E180" s="2">
         <v>45740</v>
-      </c>
-      <c r="C180" t="s">
-        <v>6</v>
-      </c>
-      <c r="D180" t="s">
-        <v>7</v>
-      </c>
-      <c r="E180">
-        <v>-3</v>
       </c>
       <c r="F180">
         <v>186</v>
@@ -4069,17 +4069,17 @@
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181">
+        <v>-14</v>
+      </c>
+      <c r="E181" s="2">
         <v>45740</v>
-      </c>
-      <c r="C181" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" t="s">
-        <v>12</v>
-      </c>
-      <c r="E181">
-        <v>-14</v>
       </c>
       <c r="F181">
         <v>187</v>
@@ -4089,17 +4089,17 @@
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182">
+        <v>-33</v>
+      </c>
+      <c r="E182" s="2">
         <v>45740</v>
-      </c>
-      <c r="C182" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" t="s">
-        <v>13</v>
-      </c>
-      <c r="E182">
-        <v>-33</v>
       </c>
       <c r="F182">
         <v>188</v>
@@ -4109,17 +4109,17 @@
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183">
+        <v>-56</v>
+      </c>
+      <c r="E183" s="2">
         <v>45740</v>
-      </c>
-      <c r="C183" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" t="s">
-        <v>13</v>
-      </c>
-      <c r="E183">
-        <v>-56</v>
       </c>
       <c r="F183">
         <v>189</v>
@@ -4129,17 +4129,17 @@
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>-1.5</v>
+      </c>
+      <c r="E184" s="2">
         <v>45741</v>
-      </c>
-      <c r="C184" t="s">
-        <v>6</v>
-      </c>
-      <c r="D184" t="s">
-        <v>7</v>
-      </c>
-      <c r="E184">
-        <v>-1.5</v>
       </c>
       <c r="F184">
         <v>190</v>
@@ -4149,17 +4149,17 @@
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>-3</v>
+      </c>
+      <c r="E185" s="2">
         <v>45741</v>
-      </c>
-      <c r="C185" t="s">
-        <v>6</v>
-      </c>
-      <c r="D185" t="s">
-        <v>7</v>
-      </c>
-      <c r="E185">
-        <v>-3</v>
       </c>
       <c r="F185">
         <v>191</v>
@@ -4169,17 +4169,17 @@
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186">
+        <v>-47</v>
+      </c>
+      <c r="E186" s="2">
         <v>45741</v>
-      </c>
-      <c r="C186" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" t="s">
-        <v>13</v>
-      </c>
-      <c r="E186">
-        <v>-47</v>
       </c>
       <c r="F186">
         <v>192</v>
@@ -4189,17 +4189,17 @@
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187">
+        <v>-2.5</v>
+      </c>
+      <c r="E187" s="2">
         <v>45742</v>
-      </c>
-      <c r="C187" t="s">
-        <v>6</v>
-      </c>
-      <c r="D187" t="s">
-        <v>8</v>
-      </c>
-      <c r="E187">
-        <v>-2.5</v>
       </c>
       <c r="F187">
         <v>193</v>
@@ -4209,17 +4209,17 @@
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188">
+        <v>-2.5</v>
+      </c>
+      <c r="E188" s="2">
         <v>45743</v>
-      </c>
-      <c r="C188" t="s">
-        <v>6</v>
-      </c>
-      <c r="D188" t="s">
-        <v>8</v>
-      </c>
-      <c r="E188">
-        <v>-2.5</v>
       </c>
       <c r="F188">
         <v>194</v>
@@ -4229,17 +4229,17 @@
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189">
+        <v>-3</v>
+      </c>
+      <c r="E189" s="2">
         <v>45743</v>
-      </c>
-      <c r="C189" t="s">
-        <v>6</v>
-      </c>
-      <c r="D189" t="s">
-        <v>8</v>
-      </c>
-      <c r="E189">
-        <v>-3</v>
       </c>
       <c r="F189">
         <v>195</v>
@@ -4249,17 +4249,17 @@
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190">
+        <v>-9</v>
+      </c>
+      <c r="E190" s="2">
         <v>45743</v>
-      </c>
-      <c r="C190" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" t="s">
-        <v>12</v>
-      </c>
-      <c r="E190">
-        <v>-9</v>
       </c>
       <c r="F190">
         <v>196</v>
@@ -4269,17 +4269,17 @@
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>-2</v>
+      </c>
+      <c r="E191" s="2">
         <v>45744</v>
-      </c>
-      <c r="C191" t="s">
-        <v>6</v>
-      </c>
-      <c r="D191" t="s">
-        <v>7</v>
-      </c>
-      <c r="E191">
-        <v>-2</v>
       </c>
       <c r="F191">
         <v>197</v>
@@ -4289,17 +4289,17 @@
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192">
+        <v>-8</v>
+      </c>
+      <c r="E192" s="2">
         <v>45744</v>
-      </c>
-      <c r="C192" t="s">
-        <v>6</v>
-      </c>
-      <c r="D192" t="s">
-        <v>11</v>
-      </c>
-      <c r="E192">
-        <v>-8</v>
       </c>
       <c r="F192">
         <v>198</v>
@@ -4309,17 +4309,17 @@
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193">
+        <v>-14</v>
+      </c>
+      <c r="E193" s="2">
         <v>45744</v>
-      </c>
-      <c r="C193" t="s">
-        <v>6</v>
-      </c>
-      <c r="D193" t="s">
-        <v>11</v>
-      </c>
-      <c r="E193">
-        <v>-14</v>
       </c>
       <c r="F193">
         <v>199</v>
@@ -4329,17 +4329,17 @@
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194">
+        <v>-13</v>
+      </c>
+      <c r="E194" s="2">
         <v>45745</v>
-      </c>
-      <c r="C194" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" t="s">
-        <v>10</v>
-      </c>
-      <c r="E194">
-        <v>-13</v>
       </c>
       <c r="F194">
         <v>200</v>
@@ -4349,17 +4349,17 @@
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195">
+        <v>-10</v>
+      </c>
+      <c r="E195" s="2">
         <v>45746</v>
-      </c>
-      <c r="C195" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" t="s">
-        <v>10</v>
-      </c>
-      <c r="E195">
-        <v>-10</v>
       </c>
       <c r="F195">
         <v>201</v>
@@ -4369,17 +4369,17 @@
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196">
+        <v>-12</v>
+      </c>
+      <c r="E196" s="2">
         <v>45746</v>
-      </c>
-      <c r="C196" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" t="s">
-        <v>12</v>
-      </c>
-      <c r="E196">
-        <v>-12</v>
       </c>
       <c r="F196">
         <v>202</v>
@@ -4389,17 +4389,17 @@
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197">
+        <v>-19</v>
+      </c>
+      <c r="E197" s="2">
         <v>45747</v>
-      </c>
-      <c r="C197" t="s">
-        <v>6</v>
-      </c>
-      <c r="D197" t="s">
-        <v>11</v>
-      </c>
-      <c r="E197">
-        <v>-19</v>
       </c>
       <c r="F197">
         <v>203</v>
@@ -4409,17 +4409,17 @@
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198">
+        <v>-19</v>
+      </c>
+      <c r="E198" s="2">
         <v>45747</v>
-      </c>
-      <c r="C198" t="s">
-        <v>6</v>
-      </c>
-      <c r="D198" t="s">
-        <v>11</v>
-      </c>
-      <c r="E198">
-        <v>-19</v>
       </c>
       <c r="F198">
         <v>204</v>
@@ -4429,17 +4429,17 @@
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199">
+        <v>-87</v>
+      </c>
+      <c r="E199" s="2">
         <v>45747</v>
-      </c>
-      <c r="C199" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" t="s">
-        <v>13</v>
-      </c>
-      <c r="E199">
-        <v>-87</v>
       </c>
       <c r="F199">
         <v>205</v>
@@ -4449,17 +4449,17 @@
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200">
+        <v>-900</v>
+      </c>
+      <c r="E200" s="2">
         <v>45747</v>
-      </c>
-      <c r="C200" t="s">
-        <v>14</v>
-      </c>
-      <c r="D200" t="s">
-        <v>15</v>
-      </c>
-      <c r="E200">
-        <v>-900</v>
       </c>
       <c r="F200">
         <v>206</v>
@@ -4469,17 +4469,17 @@
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" t="s">
+        <v>11</v>
+      </c>
+      <c r="D201">
+        <v>-14.99</v>
+      </c>
+      <c r="E201" s="2">
         <v>45747</v>
-      </c>
-      <c r="C201" t="s">
-        <v>16</v>
-      </c>
-      <c r="D201" t="s">
-        <v>17</v>
-      </c>
-      <c r="E201">
-        <v>-14.99</v>
       </c>
       <c r="F201">
         <v>207</v>
@@ -4489,17 +4489,17 @@
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202">
+        <v>-39</v>
+      </c>
+      <c r="E202" s="2">
         <v>45747</v>
-      </c>
-      <c r="C202" t="s">
-        <v>18</v>
-      </c>
-      <c r="D202" t="s">
-        <v>19</v>
-      </c>
-      <c r="E202">
-        <v>-39</v>
       </c>
       <c r="F202">
         <v>208</v>
@@ -4509,17 +4509,17 @@
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" t="s">
+        <v>14</v>
+      </c>
+      <c r="D203">
+        <v>-47.1</v>
+      </c>
+      <c r="E203" s="2">
         <v>45747</v>
-      </c>
-      <c r="C203" t="s">
-        <v>18</v>
-      </c>
-      <c r="D203" t="s">
-        <v>20</v>
-      </c>
-      <c r="E203">
-        <v>-47.1</v>
       </c>
       <c r="F203">
         <v>209</v>
@@ -4529,17 +4529,17 @@
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204">
+        <v>-20</v>
+      </c>
+      <c r="E204" s="2">
         <v>45747</v>
-      </c>
-      <c r="C204" t="s">
-        <v>18</v>
-      </c>
-      <c r="D204" t="s">
-        <v>21</v>
-      </c>
-      <c r="E204">
-        <v>-20</v>
       </c>
       <c r="F204">
         <v>210</v>
@@ -4549,17 +4549,17 @@
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>-2</v>
+      </c>
+      <c r="E205" s="2">
         <v>45748</v>
-      </c>
-      <c r="C205" t="s">
-        <v>6</v>
-      </c>
-      <c r="D205" t="s">
-        <v>7</v>
-      </c>
-      <c r="E205">
-        <v>-2</v>
       </c>
       <c r="F205">
         <v>212</v>
@@ -4569,17 +4569,17 @@
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" t="s">
+        <v>4</v>
+      </c>
+      <c r="D206">
+        <v>-11</v>
+      </c>
+      <c r="E206" s="2">
         <v>45748</v>
-      </c>
-      <c r="C206" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" t="s">
-        <v>10</v>
-      </c>
-      <c r="E206">
-        <v>-11</v>
       </c>
       <c r="F206">
         <v>213</v>
@@ -4589,17 +4589,17 @@
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207">
+        <v>-15</v>
+      </c>
+      <c r="E207" s="2">
         <v>45748</v>
-      </c>
-      <c r="C207" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" t="s">
-        <v>12</v>
-      </c>
-      <c r="E207">
-        <v>-15</v>
       </c>
       <c r="F207">
         <v>214</v>
@@ -4609,17 +4609,17 @@
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208">
+        <v>-55</v>
+      </c>
+      <c r="E208" s="2">
         <v>45748</v>
-      </c>
-      <c r="C208" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" t="s">
-        <v>13</v>
-      </c>
-      <c r="E208">
-        <v>-55</v>
       </c>
       <c r="F208">
         <v>215</v>
@@ -4629,17 +4629,17 @@
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>-2.5</v>
+      </c>
+      <c r="E209" s="2">
         <v>45749</v>
-      </c>
-      <c r="C209" t="s">
-        <v>6</v>
-      </c>
-      <c r="D209" t="s">
-        <v>7</v>
-      </c>
-      <c r="E209">
-        <v>-2.5</v>
       </c>
       <c r="F209">
         <v>217</v>
@@ -4649,17 +4649,17 @@
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210">
+        <v>-11</v>
+      </c>
+      <c r="E210" s="2">
         <v>45750</v>
-      </c>
-      <c r="C210" t="s">
-        <v>6</v>
-      </c>
-      <c r="D210" t="s">
-        <v>11</v>
-      </c>
-      <c r="E210">
-        <v>-11</v>
       </c>
       <c r="F210">
         <v>218</v>
@@ -4669,17 +4669,17 @@
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211" t="s">
+        <v>5</v>
+      </c>
+      <c r="D211">
+        <v>-14</v>
+      </c>
+      <c r="E211" s="2">
         <v>45750</v>
-      </c>
-      <c r="C211" t="s">
-        <v>6</v>
-      </c>
-      <c r="D211" t="s">
-        <v>11</v>
-      </c>
-      <c r="E211">
-        <v>-14</v>
       </c>
       <c r="F211">
         <v>219</v>
@@ -4689,17 +4689,17 @@
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>-2</v>
+      </c>
+      <c r="E212" s="2">
         <v>45751</v>
-      </c>
-      <c r="C212" t="s">
-        <v>6</v>
-      </c>
-      <c r="D212" t="s">
-        <v>7</v>
-      </c>
-      <c r="E212">
-        <v>-2</v>
       </c>
       <c r="F212">
         <v>220</v>
@@ -4709,17 +4709,17 @@
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>-2</v>
+      </c>
+      <c r="E213" s="2">
         <v>45751</v>
-      </c>
-      <c r="C213" t="s">
-        <v>6</v>
-      </c>
-      <c r="D213" t="s">
-        <v>7</v>
-      </c>
-      <c r="E213">
-        <v>-2</v>
       </c>
       <c r="F213">
         <v>221</v>
@@ -4729,17 +4729,17 @@
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214" t="s">
+        <v>0</v>
+      </c>
+      <c r="C214" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214">
+        <v>-2</v>
+      </c>
+      <c r="E214" s="2">
         <v>45752</v>
-      </c>
-      <c r="C214" t="s">
-        <v>6</v>
-      </c>
-      <c r="D214" t="s">
-        <v>8</v>
-      </c>
-      <c r="E214">
-        <v>-2</v>
       </c>
       <c r="F214">
         <v>222</v>
@@ -4749,17 +4749,17 @@
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>-2.5</v>
+      </c>
+      <c r="E215" s="2">
         <v>45753</v>
-      </c>
-      <c r="C215" t="s">
-        <v>6</v>
-      </c>
-      <c r="D215" t="s">
-        <v>8</v>
-      </c>
-      <c r="E215">
-        <v>-2.5</v>
       </c>
       <c r="F215">
         <v>223</v>
@@ -4769,17 +4769,17 @@
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216" t="s">
+        <v>0</v>
+      </c>
+      <c r="C216" t="s">
+        <v>5</v>
+      </c>
+      <c r="D216">
+        <v>-8</v>
+      </c>
+      <c r="E216" s="2">
         <v>45754</v>
-      </c>
-      <c r="C216" t="s">
-        <v>6</v>
-      </c>
-      <c r="D216" t="s">
-        <v>11</v>
-      </c>
-      <c r="E216">
-        <v>-8</v>
       </c>
       <c r="F216">
         <v>224</v>
@@ -4789,17 +4789,17 @@
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" t="s">
+        <v>4</v>
+      </c>
+      <c r="D217">
+        <v>-11</v>
+      </c>
+      <c r="E217" s="2">
         <v>45754</v>
-      </c>
-      <c r="C217" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" t="s">
-        <v>10</v>
-      </c>
-      <c r="E217">
-        <v>-11</v>
       </c>
       <c r="F217">
         <v>225</v>
@@ -4809,17 +4809,17 @@
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218" t="s">
+        <v>0</v>
+      </c>
+      <c r="C218" t="s">
+        <v>5</v>
+      </c>
+      <c r="D218">
+        <v>-9</v>
+      </c>
+      <c r="E218" s="2">
         <v>45755</v>
-      </c>
-      <c r="C218" t="s">
-        <v>6</v>
-      </c>
-      <c r="D218" t="s">
-        <v>11</v>
-      </c>
-      <c r="E218">
-        <v>-9</v>
       </c>
       <c r="F218">
         <v>226</v>
@@ -4829,17 +4829,17 @@
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219">
+        <v>-10</v>
+      </c>
+      <c r="E219" s="2">
         <v>45755</v>
-      </c>
-      <c r="C219" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" t="s">
-        <v>12</v>
-      </c>
-      <c r="E219">
-        <v>-10</v>
       </c>
       <c r="F219">
         <v>227</v>
@@ -4849,17 +4849,17 @@
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220" t="s">
+        <v>0</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>-2</v>
+      </c>
+      <c r="E220" s="2">
         <v>45756</v>
-      </c>
-      <c r="C220" t="s">
-        <v>6</v>
-      </c>
-      <c r="D220" t="s">
-        <v>7</v>
-      </c>
-      <c r="E220">
-        <v>-2</v>
       </c>
       <c r="F220">
         <v>228</v>
@@ -4869,17 +4869,17 @@
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221" t="s">
+        <v>0</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>-2</v>
+      </c>
+      <c r="E221" s="2">
         <v>45756</v>
-      </c>
-      <c r="C221" t="s">
-        <v>6</v>
-      </c>
-      <c r="D221" t="s">
-        <v>8</v>
-      </c>
-      <c r="E221">
-        <v>-2</v>
       </c>
       <c r="F221">
         <v>229</v>
@@ -4889,17 +4889,17 @@
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" t="s">
+        <v>4</v>
+      </c>
+      <c r="D222">
+        <v>-11</v>
+      </c>
+      <c r="E222" s="2">
         <v>45756</v>
-      </c>
-      <c r="C222" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222" t="s">
-        <v>10</v>
-      </c>
-      <c r="E222">
-        <v>-11</v>
       </c>
       <c r="F222">
         <v>230</v>
@@ -4909,17 +4909,17 @@
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223" t="s">
+        <v>0</v>
+      </c>
+      <c r="C223" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223">
+        <v>-11</v>
+      </c>
+      <c r="E223" s="2">
         <v>45758</v>
-      </c>
-      <c r="C223" t="s">
-        <v>6</v>
-      </c>
-      <c r="D223" t="s">
-        <v>11</v>
-      </c>
-      <c r="E223">
-        <v>-11</v>
       </c>
       <c r="F223">
         <v>231</v>
@@ -4929,17 +4929,17 @@
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224" t="s">
+        <v>0</v>
+      </c>
+      <c r="C224" t="s">
+        <v>5</v>
+      </c>
+      <c r="D224">
+        <v>-14</v>
+      </c>
+      <c r="E224" s="2">
         <v>45758</v>
-      </c>
-      <c r="C224" t="s">
-        <v>6</v>
-      </c>
-      <c r="D224" t="s">
-        <v>11</v>
-      </c>
-      <c r="E224">
-        <v>-14</v>
       </c>
       <c r="F224">
         <v>232</v>
@@ -4949,17 +4949,17 @@
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225">
+        <v>-15</v>
+      </c>
+      <c r="E225" s="2">
         <v>45758</v>
-      </c>
-      <c r="C225" t="s">
-        <v>9</v>
-      </c>
-      <c r="D225" t="s">
-        <v>12</v>
-      </c>
-      <c r="E225">
-        <v>-15</v>
       </c>
       <c r="F225">
         <v>233</v>
@@ -4969,17 +4969,17 @@
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226">
+        <v>-11</v>
+      </c>
+      <c r="E226" s="2">
         <v>45759</v>
-      </c>
-      <c r="C226" t="s">
-        <v>6</v>
-      </c>
-      <c r="D226" t="s">
-        <v>11</v>
-      </c>
-      <c r="E226">
-        <v>-11</v>
       </c>
       <c r="F226">
         <v>234</v>
@@ -4989,17 +4989,17 @@
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" t="s">
+        <v>7</v>
+      </c>
+      <c r="D227">
+        <v>-56</v>
+      </c>
+      <c r="E227" s="2">
         <v>45759</v>
-      </c>
-      <c r="C227" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" t="s">
-        <v>13</v>
-      </c>
-      <c r="E227">
-        <v>-56</v>
       </c>
       <c r="F227">
         <v>235</v>
@@ -5009,17 +5009,17 @@
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" t="s">
+        <v>4</v>
+      </c>
+      <c r="D228">
+        <v>-11</v>
+      </c>
+      <c r="E228" s="2">
         <v>45760</v>
-      </c>
-      <c r="C228" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" t="s">
-        <v>10</v>
-      </c>
-      <c r="E228">
-        <v>-11</v>
       </c>
       <c r="F228">
         <v>236</v>
@@ -5029,17 +5029,17 @@
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" t="s">
+        <v>4</v>
+      </c>
+      <c r="D229">
+        <v>-11</v>
+      </c>
+      <c r="E229" s="2">
         <v>45760</v>
-      </c>
-      <c r="C229" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" t="s">
-        <v>10</v>
-      </c>
-      <c r="E229">
-        <v>-11</v>
       </c>
       <c r="F229">
         <v>237</v>
@@ -5049,17 +5049,17 @@
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230">
+        <v>-17</v>
+      </c>
+      <c r="E230" s="2">
         <v>45760</v>
-      </c>
-      <c r="C230" t="s">
-        <v>6</v>
-      </c>
-      <c r="D230" t="s">
-        <v>11</v>
-      </c>
-      <c r="E230">
-        <v>-17</v>
       </c>
       <c r="F230">
         <v>238</v>
@@ -5069,17 +5069,17 @@
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" t="s">
+        <v>0</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>-1.5</v>
+      </c>
+      <c r="E231" s="2">
         <v>45761</v>
-      </c>
-      <c r="C231" t="s">
-        <v>6</v>
-      </c>
-      <c r="D231" t="s">
-        <v>7</v>
-      </c>
-      <c r="E231">
-        <v>-1.5</v>
       </c>
       <c r="F231">
         <v>239</v>
@@ -5089,17 +5089,17 @@
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C232" t="s">
+        <v>2</v>
+      </c>
+      <c r="D232">
+        <v>-2.5</v>
+      </c>
+      <c r="E232" s="2">
         <v>45761</v>
-      </c>
-      <c r="C232" t="s">
-        <v>6</v>
-      </c>
-      <c r="D232" t="s">
-        <v>8</v>
-      </c>
-      <c r="E232">
-        <v>-2.5</v>
       </c>
       <c r="F232">
         <v>240</v>
@@ -5109,17 +5109,17 @@
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" t="s">
+        <v>4</v>
+      </c>
+      <c r="D233">
+        <v>-15</v>
+      </c>
+      <c r="E233" s="2">
         <v>45762</v>
-      </c>
-      <c r="C233" t="s">
-        <v>9</v>
-      </c>
-      <c r="D233" t="s">
-        <v>10</v>
-      </c>
-      <c r="E233">
-        <v>-15</v>
       </c>
       <c r="F233">
         <v>241</v>
@@ -5129,17 +5129,17 @@
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234" t="s">
+        <v>0</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>-1.5</v>
+      </c>
+      <c r="E234" s="2">
         <v>45763</v>
-      </c>
-      <c r="C234" t="s">
-        <v>6</v>
-      </c>
-      <c r="D234" t="s">
-        <v>7</v>
-      </c>
-      <c r="E234">
-        <v>-1.5</v>
       </c>
       <c r="F234">
         <v>242</v>
@@ -5149,17 +5149,17 @@
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" t="s">
+        <v>4</v>
+      </c>
+      <c r="D235">
+        <v>-13</v>
+      </c>
+      <c r="E235" s="2">
         <v>45763</v>
-      </c>
-      <c r="C235" t="s">
-        <v>9</v>
-      </c>
-      <c r="D235" t="s">
-        <v>10</v>
-      </c>
-      <c r="E235">
-        <v>-13</v>
       </c>
       <c r="F235">
         <v>243</v>
@@ -5169,17 +5169,17 @@
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236">
+        <v>-76</v>
+      </c>
+      <c r="E236" s="2">
         <v>45763</v>
-      </c>
-      <c r="C236" t="s">
-        <v>9</v>
-      </c>
-      <c r="D236" t="s">
-        <v>13</v>
-      </c>
-      <c r="E236">
-        <v>-76</v>
       </c>
       <c r="F236">
         <v>244</v>
@@ -5189,17 +5189,17 @@
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237" t="s">
+        <v>0</v>
+      </c>
+      <c r="C237" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237">
+        <v>-2</v>
+      </c>
+      <c r="E237" s="2">
         <v>45764</v>
-      </c>
-      <c r="C237" t="s">
-        <v>6</v>
-      </c>
-      <c r="D237" t="s">
-        <v>8</v>
-      </c>
-      <c r="E237">
-        <v>-2</v>
       </c>
       <c r="F237">
         <v>245</v>
@@ -5209,17 +5209,17 @@
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238" t="s">
+        <v>0</v>
+      </c>
+      <c r="C238" t="s">
+        <v>5</v>
+      </c>
+      <c r="D238">
+        <v>-11</v>
+      </c>
+      <c r="E238" s="2">
         <v>45764</v>
-      </c>
-      <c r="C238" t="s">
-        <v>6</v>
-      </c>
-      <c r="D238" t="s">
-        <v>11</v>
-      </c>
-      <c r="E238">
-        <v>-11</v>
       </c>
       <c r="F238">
         <v>246</v>
@@ -5229,17 +5229,17 @@
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" t="s">
+        <v>0</v>
+      </c>
+      <c r="C239" t="s">
+        <v>5</v>
+      </c>
+      <c r="D239">
+        <v>-20</v>
+      </c>
+      <c r="E239" s="2">
         <v>45764</v>
-      </c>
-      <c r="C239" t="s">
-        <v>6</v>
-      </c>
-      <c r="D239" t="s">
-        <v>11</v>
-      </c>
-      <c r="E239">
-        <v>-20</v>
       </c>
       <c r="F239">
         <v>247</v>
@@ -5249,17 +5249,17 @@
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240" t="s">
+        <v>0</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>-1.5</v>
+      </c>
+      <c r="E240" s="2">
         <v>45765</v>
-      </c>
-      <c r="C240" t="s">
-        <v>6</v>
-      </c>
-      <c r="D240" t="s">
-        <v>7</v>
-      </c>
-      <c r="E240">
-        <v>-1.5</v>
       </c>
       <c r="F240">
         <v>248</v>
@@ -5269,17 +5269,17 @@
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" t="s">
+        <v>4</v>
+      </c>
+      <c r="D241">
+        <v>-15</v>
+      </c>
+      <c r="E241" s="2">
         <v>45766</v>
-      </c>
-      <c r="C241" t="s">
-        <v>9</v>
-      </c>
-      <c r="D241" t="s">
-        <v>10</v>
-      </c>
-      <c r="E241">
-        <v>-15</v>
       </c>
       <c r="F241">
         <v>249</v>
@@ -5289,17 +5289,17 @@
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242" t="s">
+        <v>3</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242">
+        <v>-12</v>
+      </c>
+      <c r="E242" s="2">
         <v>45767</v>
-      </c>
-      <c r="C242" t="s">
-        <v>9</v>
-      </c>
-      <c r="D242" t="s">
-        <v>12</v>
-      </c>
-      <c r="E242">
-        <v>-12</v>
       </c>
       <c r="F242">
         <v>250</v>
@@ -5309,17 +5309,17 @@
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>-2</v>
+      </c>
+      <c r="E243" s="2">
         <v>45768</v>
-      </c>
-      <c r="C243" t="s">
-        <v>6</v>
-      </c>
-      <c r="D243" t="s">
-        <v>7</v>
-      </c>
-      <c r="E243">
-        <v>-2</v>
       </c>
       <c r="F243">
         <v>252</v>
@@ -5329,17 +5329,17 @@
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244" t="s">
+        <v>0</v>
+      </c>
+      <c r="C244" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244">
+        <v>-2.5</v>
+      </c>
+      <c r="E244" s="2">
         <v>45768</v>
-      </c>
-      <c r="C244" t="s">
-        <v>6</v>
-      </c>
-      <c r="D244" t="s">
-        <v>8</v>
-      </c>
-      <c r="E244">
-        <v>-2.5</v>
       </c>
       <c r="F244">
         <v>253</v>
@@ -5349,17 +5349,17 @@
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245" t="s">
+        <v>0</v>
+      </c>
+      <c r="C245" t="s">
+        <v>5</v>
+      </c>
+      <c r="D245">
+        <v>-14</v>
+      </c>
+      <c r="E245" s="2">
         <v>45768</v>
-      </c>
-      <c r="C245" t="s">
-        <v>6</v>
-      </c>
-      <c r="D245" t="s">
-        <v>11</v>
-      </c>
-      <c r="E245">
-        <v>-14</v>
       </c>
       <c r="F245">
         <v>254</v>
@@ -5369,17 +5369,17 @@
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246" t="s">
+        <v>0</v>
+      </c>
+      <c r="C246" t="s">
+        <v>5</v>
+      </c>
+      <c r="D246">
+        <v>-15</v>
+      </c>
+      <c r="E246" s="2">
         <v>45769</v>
-      </c>
-      <c r="C246" t="s">
-        <v>6</v>
-      </c>
-      <c r="D246" t="s">
-        <v>11</v>
-      </c>
-      <c r="E246">
-        <v>-15</v>
       </c>
       <c r="F246">
         <v>255</v>
@@ -5389,17 +5389,17 @@
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247" t="s">
+        <v>3</v>
+      </c>
+      <c r="C247" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247">
+        <v>-56</v>
+      </c>
+      <c r="E247" s="2">
         <v>45769</v>
-      </c>
-      <c r="C247" t="s">
-        <v>9</v>
-      </c>
-      <c r="D247" t="s">
-        <v>13</v>
-      </c>
-      <c r="E247">
-        <v>-56</v>
       </c>
       <c r="F247">
         <v>256</v>
@@ -5409,17 +5409,17 @@
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248" t="s">
+        <v>0</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>-1.5</v>
+      </c>
+      <c r="E248" s="2">
         <v>45770</v>
-      </c>
-      <c r="C248" t="s">
-        <v>6</v>
-      </c>
-      <c r="D248" t="s">
-        <v>7</v>
-      </c>
-      <c r="E248">
-        <v>-1.5</v>
       </c>
       <c r="F248">
         <v>257</v>
@@ -5429,17 +5429,17 @@
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249" t="s">
+        <v>0</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>-2</v>
+      </c>
+      <c r="E249" s="2">
         <v>45770</v>
-      </c>
-      <c r="C249" t="s">
-        <v>6</v>
-      </c>
-      <c r="D249" t="s">
-        <v>7</v>
-      </c>
-      <c r="E249">
-        <v>-2</v>
       </c>
       <c r="F249">
         <v>258</v>
@@ -5449,17 +5449,17 @@
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250" t="s">
+        <v>0</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>-3</v>
+      </c>
+      <c r="E250" s="2">
         <v>45771</v>
-      </c>
-      <c r="C250" t="s">
-        <v>6</v>
-      </c>
-      <c r="D250" t="s">
-        <v>7</v>
-      </c>
-      <c r="E250">
-        <v>-3</v>
       </c>
       <c r="F250">
         <v>259</v>
@@ -5469,17 +5469,17 @@
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" t="s">
+        <v>4</v>
+      </c>
+      <c r="D251">
+        <v>-10</v>
+      </c>
+      <c r="E251" s="2">
         <v>45771</v>
-      </c>
-      <c r="C251" t="s">
-        <v>9</v>
-      </c>
-      <c r="D251" t="s">
-        <v>10</v>
-      </c>
-      <c r="E251">
-        <v>-10</v>
       </c>
       <c r="F251">
         <v>260</v>
@@ -5489,17 +5489,17 @@
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252" t="s">
+        <v>0</v>
+      </c>
+      <c r="C252" t="s">
+        <v>5</v>
+      </c>
+      <c r="D252">
+        <v>-16</v>
+      </c>
+      <c r="E252" s="2">
         <v>45771</v>
-      </c>
-      <c r="C252" t="s">
-        <v>6</v>
-      </c>
-      <c r="D252" t="s">
-        <v>11</v>
-      </c>
-      <c r="E252">
-        <v>-16</v>
       </c>
       <c r="F252">
         <v>261</v>
@@ -5509,17 +5509,17 @@
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>-2.5</v>
+      </c>
+      <c r="E253" s="3">
         <v>45773</v>
-      </c>
-      <c r="C253" t="s">
-        <v>6</v>
-      </c>
-      <c r="D253" t="s">
-        <v>7</v>
-      </c>
-      <c r="E253">
-        <v>-2.5</v>
       </c>
       <c r="F253">
         <v>262</v>
@@ -5529,17 +5529,17 @@
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B254" t="s">
+        <v>0</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>-3</v>
+      </c>
+      <c r="E254" s="3">
         <v>45773</v>
-      </c>
-      <c r="C254" t="s">
-        <v>6</v>
-      </c>
-      <c r="D254" t="s">
-        <v>7</v>
-      </c>
-      <c r="E254">
-        <v>-3</v>
       </c>
       <c r="F254">
         <v>263</v>
@@ -5549,17 +5549,17 @@
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="3">
+      <c r="B255" t="s">
+        <v>0</v>
+      </c>
+      <c r="C255" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255">
+        <v>-2</v>
+      </c>
+      <c r="E255" s="3">
         <v>45775</v>
-      </c>
-      <c r="C255" t="s">
-        <v>6</v>
-      </c>
-      <c r="D255" t="s">
-        <v>8</v>
-      </c>
-      <c r="E255">
-        <v>-2</v>
       </c>
       <c r="F255">
         <v>264</v>
@@ -5569,17 +5569,17 @@
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>-2</v>
+      </c>
+      <c r="E256" s="3">
         <v>45776</v>
-      </c>
-      <c r="C256" t="s">
-        <v>6</v>
-      </c>
-      <c r="D256" t="s">
-        <v>7</v>
-      </c>
-      <c r="E256">
-        <v>-2</v>
       </c>
       <c r="F256">
         <v>265</v>
@@ -5589,17 +5589,17 @@
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B257" t="s">
+        <v>0</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>-2.5</v>
+      </c>
+      <c r="E257" s="3">
         <v>45776</v>
-      </c>
-      <c r="C257" t="s">
-        <v>6</v>
-      </c>
-      <c r="D257" t="s">
-        <v>7</v>
-      </c>
-      <c r="E257">
-        <v>-2.5</v>
       </c>
       <c r="F257">
         <v>266</v>
@@ -5609,17 +5609,17 @@
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B258" t="s">
+        <v>0</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>-2.5</v>
+      </c>
+      <c r="E258" s="3">
         <v>45776</v>
-      </c>
-      <c r="C258" t="s">
-        <v>6</v>
-      </c>
-      <c r="D258" t="s">
-        <v>7</v>
-      </c>
-      <c r="E258">
-        <v>-2.5</v>
       </c>
       <c r="F258">
         <v>267</v>
@@ -5629,17 +5629,17 @@
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" s="3">
+      <c r="B259" t="s">
+        <v>0</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>-3</v>
+      </c>
+      <c r="E259" s="3">
         <v>45776</v>
-      </c>
-      <c r="C259" t="s">
-        <v>6</v>
-      </c>
-      <c r="D259" t="s">
-        <v>7</v>
-      </c>
-      <c r="E259">
-        <v>-3</v>
       </c>
       <c r="F259">
         <v>268</v>
@@ -5649,17 +5649,17 @@
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B260" t="s">
+        <v>0</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>-3</v>
+      </c>
+      <c r="E260" s="3">
         <v>45776</v>
-      </c>
-      <c r="C260" t="s">
-        <v>6</v>
-      </c>
-      <c r="D260" t="s">
-        <v>7</v>
-      </c>
-      <c r="E260">
-        <v>-3</v>
       </c>
       <c r="F260">
         <v>269</v>
@@ -5669,17 +5669,17 @@
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B261" t="s">
+        <v>0</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>-2.5</v>
+      </c>
+      <c r="E261" s="3">
         <v>45777</v>
-      </c>
-      <c r="C261" t="s">
-        <v>6</v>
-      </c>
-      <c r="D261" t="s">
-        <v>7</v>
-      </c>
-      <c r="E261">
-        <v>-2.5</v>
       </c>
       <c r="F261">
         <v>270</v>
@@ -5689,17 +5689,17 @@
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" s="3">
+      <c r="B262" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262" t="s">
+        <v>4</v>
+      </c>
+      <c r="D262">
+        <v>-11</v>
+      </c>
+      <c r="E262" s="3">
         <v>45777</v>
-      </c>
-      <c r="C262" t="s">
-        <v>9</v>
-      </c>
-      <c r="D262" t="s">
-        <v>10</v>
-      </c>
-      <c r="E262">
-        <v>-11</v>
       </c>
       <c r="F262">
         <v>271</v>
@@ -5709,17 +5709,17 @@
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="3">
+      <c r="B263" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263">
+        <v>-13</v>
+      </c>
+      <c r="E263" s="3">
         <v>45777</v>
-      </c>
-      <c r="C263" t="s">
-        <v>9</v>
-      </c>
-      <c r="D263" t="s">
-        <v>12</v>
-      </c>
-      <c r="E263">
-        <v>-13</v>
       </c>
       <c r="F263">
         <v>272</v>
@@ -5729,17 +5729,17 @@
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" s="3">
+      <c r="B264" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264" t="s">
+        <v>9</v>
+      </c>
+      <c r="D264">
+        <v>-1000</v>
+      </c>
+      <c r="E264" s="3">
         <v>45777</v>
-      </c>
-      <c r="C264" t="s">
-        <v>14</v>
-      </c>
-      <c r="D264" t="s">
-        <v>15</v>
-      </c>
-      <c r="E264">
-        <v>-1000</v>
       </c>
       <c r="F264">
         <v>273</v>
@@ -5749,17 +5749,17 @@
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B265" t="s">
+        <v>10</v>
+      </c>
+      <c r="C265" t="s">
+        <v>11</v>
+      </c>
+      <c r="D265">
+        <v>-29.98</v>
+      </c>
+      <c r="E265" s="3">
         <v>45777</v>
-      </c>
-      <c r="C265" t="s">
-        <v>16</v>
-      </c>
-      <c r="D265" t="s">
-        <v>17</v>
-      </c>
-      <c r="E265">
-        <v>-29.98</v>
       </c>
       <c r="F265">
         <v>274</v>
@@ -5769,17 +5769,17 @@
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" s="3">
+      <c r="B266" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266" t="s">
+        <v>13</v>
+      </c>
+      <c r="D266">
+        <v>-48.9</v>
+      </c>
+      <c r="E266" s="3">
         <v>45777</v>
-      </c>
-      <c r="C266" t="s">
-        <v>18</v>
-      </c>
-      <c r="D266" t="s">
-        <v>19</v>
-      </c>
-      <c r="E266">
-        <v>-48.9</v>
       </c>
       <c r="F266">
         <v>275</v>
@@ -5789,17 +5789,17 @@
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" s="3">
+      <c r="B267" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" t="s">
+        <v>14</v>
+      </c>
+      <c r="D267">
+        <v>-60.5</v>
+      </c>
+      <c r="E267" s="3">
         <v>45777</v>
-      </c>
-      <c r="C267" t="s">
-        <v>18</v>
-      </c>
-      <c r="D267" t="s">
-        <v>20</v>
-      </c>
-      <c r="E267">
-        <v>-60.5</v>
       </c>
       <c r="F267">
         <v>276</v>
@@ -5809,17 +5809,17 @@
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" s="3">
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" t="s">
+        <v>15</v>
+      </c>
+      <c r="D268">
+        <v>-22</v>
+      </c>
+      <c r="E268" s="3">
         <v>45777</v>
-      </c>
-      <c r="C268" t="s">
-        <v>18</v>
-      </c>
-      <c r="D268" t="s">
-        <v>21</v>
-      </c>
-      <c r="E268">
-        <v>-22</v>
       </c>
       <c r="F268">
         <v>277</v>

--- a/Rohan/data/expense.xlsx
+++ b/Rohan/data/expense.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1c741db71da0312/Desktop/VS Code Github/python-project/Rohan/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1c741db71da0312/Desktop/VS Code Github/python-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_0EA9F2A4D3A0D5EEB0880DD04B5ED87656CC434E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{761EE11D-C41E-4691-854E-B5800CE3696E}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_0EA9F2A4D3A0D5EEB0880DD04B5ED87656CC434E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67F076FA-B2DF-4F45-BBAB-4EF5800FDEC1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,24 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="22">
+  <si>
+    <t>expenses_id</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>transaction_id</t>
+  </si>
   <si>
     <t>Transportation</t>
   </si>
@@ -68,24 +86,6 @@
   </si>
   <si>
     <t>Phone bill</t>
-  </si>
-  <si>
-    <t>Expenses ID</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Transaction ID</t>
   </si>
 </sst>
 </file>
@@ -456,50 +456,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="H266" sqref="H266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B2" s="2">
+        <v>45658</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
         <v>-2.5</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45658</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -509,17 +509,17 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
+      <c r="B3" s="2">
+        <v>45658</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
         <v>-3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45658</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -529,17 +529,17 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B4" s="2">
+        <v>45658</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
         <v>-14</v>
-      </c>
-      <c r="E4" s="2">
-        <v>45658</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -549,17 +549,17 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
+      <c r="B5" s="2">
+        <v>45658</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
         <v>-19</v>
-      </c>
-      <c r="E5" s="2">
-        <v>45658</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -569,17 +569,17 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
+      <c r="B6" s="2">
+        <v>45659</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
         <v>-10</v>
-      </c>
-      <c r="E6" s="2">
-        <v>45659</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -589,17 +589,17 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
+      <c r="B7" s="2">
+        <v>45660</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
         <v>-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>45660</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -609,17 +609,17 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
+      <c r="B8" s="2">
+        <v>45660</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
         <v>-9</v>
-      </c>
-      <c r="E8" s="2">
-        <v>45660</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -629,17 +629,17 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
+      <c r="B9" s="2">
+        <v>45660</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
         <v>-11</v>
-      </c>
-      <c r="E9" s="2">
-        <v>45660</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -649,17 +649,17 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>0</v>
+      <c r="B10" s="2">
+        <v>45661</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>45661</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -669,17 +669,17 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
+      <c r="B11" s="2">
+        <v>45662</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
         <v>-10</v>
-      </c>
-      <c r="E11" s="2">
-        <v>45662</v>
       </c>
       <c r="F11">
         <v>11</v>
@@ -689,17 +689,17 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
+      <c r="B12" s="2">
+        <v>45662</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
         <v>-83</v>
-      </c>
-      <c r="E12" s="2">
-        <v>45662</v>
       </c>
       <c r="F12">
         <v>12</v>
@@ -709,17 +709,17 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>0</v>
+      <c r="B13" s="2">
+        <v>45663</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
         <v>-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>45663</v>
       </c>
       <c r="F13">
         <v>13</v>
@@ -729,17 +729,17 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
+      <c r="B14" s="2">
+        <v>45663</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
         <v>-8</v>
-      </c>
-      <c r="E14" s="2">
-        <v>45663</v>
       </c>
       <c r="F14">
         <v>14</v>
@@ -749,17 +749,17 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
+      <c r="B15" s="2">
+        <v>45664</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
         <v>-15</v>
-      </c>
-      <c r="E15" s="2">
-        <v>45664</v>
       </c>
       <c r="F15">
         <v>15</v>
@@ -769,17 +769,17 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>0</v>
+      <c r="B16" s="2">
+        <v>45665</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
         <v>-1.5</v>
-      </c>
-      <c r="E16" s="2">
-        <v>45665</v>
       </c>
       <c r="F16">
         <v>16</v>
@@ -789,17 +789,17 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
+      <c r="B17" s="2">
+        <v>45665</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
         <v>-9</v>
-      </c>
-      <c r="E17" s="2">
-        <v>45665</v>
       </c>
       <c r="F17">
         <v>17</v>
@@ -809,17 +809,17 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>0</v>
+      <c r="B18" s="2">
+        <v>45665</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
         <v>-14</v>
-      </c>
-      <c r="E18" s="2">
-        <v>45665</v>
       </c>
       <c r="F18">
         <v>18</v>
@@ -829,17 +829,17 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
+      <c r="B19" s="2">
+        <v>45666</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
         <v>-10</v>
-      </c>
-      <c r="E19" s="2">
-        <v>45666</v>
       </c>
       <c r="F19">
         <v>19</v>
@@ -849,17 +849,17 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>0</v>
+      <c r="B20" s="2">
+        <v>45666</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20">
         <v>-11</v>
-      </c>
-      <c r="E20" s="2">
-        <v>45666</v>
       </c>
       <c r="F20">
         <v>20</v>
@@ -869,17 +869,17 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>0</v>
+      <c r="B21" s="2">
+        <v>45667</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21">
         <v>-8</v>
-      </c>
-      <c r="E21" s="2">
-        <v>45667</v>
       </c>
       <c r="F21">
         <v>21</v>
@@ -889,17 +889,17 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>3</v>
+      <c r="B22" s="2">
+        <v>45667</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
         <v>-13</v>
-      </c>
-      <c r="E22" s="2">
-        <v>45667</v>
       </c>
       <c r="F22">
         <v>22</v>
@@ -909,17 +909,17 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
+      <c r="B23" s="2">
+        <v>45668</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
         <v>-41</v>
-      </c>
-      <c r="E23" s="2">
-        <v>45668</v>
       </c>
       <c r="F23">
         <v>23</v>
@@ -929,17 +929,17 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>0</v>
+      <c r="B24" s="2">
+        <v>45669</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
         <v>-1.5</v>
-      </c>
-      <c r="E24" s="2">
-        <v>45669</v>
       </c>
       <c r="F24">
         <v>24</v>
@@ -949,17 +949,17 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>0</v>
+      <c r="B25" s="2">
+        <v>45669</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
         <v>-2</v>
-      </c>
-      <c r="E25" s="2">
-        <v>45669</v>
       </c>
       <c r="F25">
         <v>25</v>
@@ -969,17 +969,17 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>3</v>
+      <c r="B26" s="2">
+        <v>45669</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
         <v>-12</v>
-      </c>
-      <c r="E26" s="2">
-        <v>45669</v>
       </c>
       <c r="F26">
         <v>26</v>
@@ -989,17 +989,17 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>0</v>
+      <c r="B27" s="2">
+        <v>45670</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27">
         <v>-18</v>
-      </c>
-      <c r="E27" s="2">
-        <v>45670</v>
       </c>
       <c r="F27">
         <v>27</v>
@@ -1009,17 +1009,17 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>0</v>
+      <c r="B28" s="2">
+        <v>45672</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
         <v>-2</v>
-      </c>
-      <c r="E28" s="2">
-        <v>45672</v>
       </c>
       <c r="F28">
         <v>28</v>
@@ -1029,17 +1029,17 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>0</v>
+      <c r="B29" s="2">
+        <v>45672</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
         <v>-2.5</v>
-      </c>
-      <c r="E29" s="2">
-        <v>45672</v>
       </c>
       <c r="F29">
         <v>29</v>
@@ -1049,17 +1049,17 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>3</v>
+      <c r="B30" s="2">
+        <v>45672</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
         <v>-9</v>
-      </c>
-      <c r="E30" s="2">
-        <v>45672</v>
       </c>
       <c r="F30">
         <v>30</v>
@@ -1069,17 +1069,17 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>0</v>
+      <c r="B31" s="2">
+        <v>45672</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
         <v>-20</v>
-      </c>
-      <c r="E31" s="2">
-        <v>45672</v>
       </c>
       <c r="F31">
         <v>31</v>
@@ -1089,17 +1089,17 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>0</v>
+      <c r="B32" s="2">
+        <v>45674</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32">
         <v>-2</v>
-      </c>
-      <c r="E32" s="2">
-        <v>45674</v>
       </c>
       <c r="F32">
         <v>32</v>
@@ -1109,17 +1109,17 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>0</v>
+      <c r="B33" s="2">
+        <v>45674</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33">
         <v>-18</v>
-      </c>
-      <c r="E33" s="2">
-        <v>45674</v>
       </c>
       <c r="F33">
         <v>33</v>
@@ -1129,17 +1129,17 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>0</v>
+      <c r="B34" s="2">
+        <v>45675</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34">
         <v>-2.5</v>
-      </c>
-      <c r="E34" s="2">
-        <v>45675</v>
       </c>
       <c r="F34">
         <v>34</v>
@@ -1149,17 +1149,17 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>3</v>
+      <c r="B35" s="2">
+        <v>45675</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35">
         <v>-13</v>
-      </c>
-      <c r="E35" s="2">
-        <v>45675</v>
       </c>
       <c r="F35">
         <v>35</v>
@@ -1169,17 +1169,17 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>3</v>
+      <c r="B36" s="2">
+        <v>45675</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
         <v>-13</v>
-      </c>
-      <c r="E36" s="2">
-        <v>45675</v>
       </c>
       <c r="F36">
         <v>36</v>
@@ -1189,17 +1189,17 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>0</v>
+      <c r="B37" s="2">
+        <v>45675</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37">
         <v>-20</v>
-      </c>
-      <c r="E37" s="2">
-        <v>45675</v>
       </c>
       <c r="F37">
         <v>37</v>
@@ -1209,17 +1209,17 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>0</v>
+      <c r="B38" s="2">
+        <v>45676</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38">
         <v>-1.5</v>
-      </c>
-      <c r="E38" s="2">
-        <v>45676</v>
       </c>
       <c r="F38">
         <v>38</v>
@@ -1229,17 +1229,17 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>0</v>
+      <c r="B39" s="2">
+        <v>45676</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39">
         <v>-2</v>
-      </c>
-      <c r="E39" s="2">
-        <v>45676</v>
       </c>
       <c r="F39">
         <v>39</v>
@@ -1249,17 +1249,17 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>3</v>
+      <c r="B40" s="2">
+        <v>45676</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40">
         <v>-8</v>
-      </c>
-      <c r="E40" s="2">
-        <v>45676</v>
       </c>
       <c r="F40">
         <v>40</v>
@@ -1269,17 +1269,17 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>3</v>
+      <c r="B41" s="2">
+        <v>45676</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41">
         <v>-14</v>
-      </c>
-      <c r="E41" s="2">
-        <v>45676</v>
       </c>
       <c r="F41">
         <v>41</v>
@@ -1289,17 +1289,17 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>0</v>
+      <c r="B42" s="2">
+        <v>45677</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42">
         <v>-2</v>
-      </c>
-      <c r="E42" s="2">
-        <v>45677</v>
       </c>
       <c r="F42">
         <v>42</v>
@@ -1309,17 +1309,17 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>3</v>
+      <c r="B43" s="2">
+        <v>45677</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43">
         <v>-14</v>
-      </c>
-      <c r="E43" s="2">
-        <v>45677</v>
       </c>
       <c r="F43">
         <v>43</v>
@@ -1329,17 +1329,17 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>0</v>
+      <c r="B44" s="2">
+        <v>45678</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44">
         <v>-2.5</v>
-      </c>
-      <c r="E44" s="2">
-        <v>45678</v>
       </c>
       <c r="F44">
         <v>45</v>
@@ -1349,17 +1349,17 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>0</v>
+      <c r="B45" s="2">
+        <v>45678</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
         <v>-11</v>
-      </c>
-      <c r="E45" s="2">
-        <v>45678</v>
       </c>
       <c r="F45">
         <v>46</v>
@@ -1369,17 +1369,17 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>3</v>
+      <c r="B46" s="2">
+        <v>45679</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46">
         <v>-13</v>
-      </c>
-      <c r="E46" s="2">
-        <v>45679</v>
       </c>
       <c r="F46">
         <v>47</v>
@@ -1389,17 +1389,17 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>0</v>
+      <c r="B47" s="2">
+        <v>45679</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47">
         <v>-14</v>
-      </c>
-      <c r="E47" s="2">
-        <v>45679</v>
       </c>
       <c r="F47">
         <v>48</v>
@@ -1409,17 +1409,17 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>3</v>
+      <c r="B48" s="2">
+        <v>45681</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48">
         <v>-11</v>
-      </c>
-      <c r="E48" s="2">
-        <v>45681</v>
       </c>
       <c r="F48">
         <v>49</v>
@@ -1429,17 +1429,17 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>3</v>
+      <c r="B49" s="2">
+        <v>45681</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49">
         <v>-12</v>
-      </c>
-      <c r="E49" s="2">
-        <v>45681</v>
       </c>
       <c r="F49">
         <v>50</v>
@@ -1449,17 +1449,17 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>3</v>
+      <c r="B50" s="2">
+        <v>45681</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50">
         <v>-32</v>
-      </c>
-      <c r="E50" s="2">
-        <v>45681</v>
       </c>
       <c r="F50">
         <v>51</v>
@@ -1469,17 +1469,17 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>0</v>
+      <c r="B51" s="2">
+        <v>45682</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51">
         <v>-16</v>
-      </c>
-      <c r="E51" s="2">
-        <v>45682</v>
       </c>
       <c r="F51">
         <v>52</v>
@@ -1489,17 +1489,17 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>0</v>
+      <c r="B52" s="2">
+        <v>45682</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52">
         <v>-19</v>
-      </c>
-      <c r="E52" s="2">
-        <v>45682</v>
       </c>
       <c r="F52">
         <v>53</v>
@@ -1509,17 +1509,17 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>3</v>
+      <c r="B53" s="2">
+        <v>45682</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53">
         <v>-45</v>
-      </c>
-      <c r="E53" s="2">
-        <v>45682</v>
       </c>
       <c r="F53">
         <v>54</v>
@@ -1529,17 +1529,17 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>0</v>
+      <c r="B54" s="2">
+        <v>45683</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54">
         <v>-2.5</v>
-      </c>
-      <c r="E54" s="2">
-        <v>45683</v>
       </c>
       <c r="F54">
         <v>55</v>
@@ -1549,17 +1549,17 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>0</v>
+      <c r="B55" s="2">
+        <v>45683</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55">
         <v>-2.5</v>
-      </c>
-      <c r="E55" s="2">
-        <v>45683</v>
       </c>
       <c r="F55">
         <v>56</v>
@@ -1569,17 +1569,17 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>3</v>
+      <c r="B56" s="2">
+        <v>45683</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56">
         <v>-8</v>
-      </c>
-      <c r="E56" s="2">
-        <v>45683</v>
       </c>
       <c r="F56">
         <v>57</v>
@@ -1589,17 +1589,17 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>3</v>
+      <c r="B57" s="2">
+        <v>45684</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57">
         <v>-9</v>
-      </c>
-      <c r="E57" s="2">
-        <v>45684</v>
       </c>
       <c r="F57">
         <v>58</v>
@@ -1609,17 +1609,17 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>0</v>
+      <c r="B58" s="2">
+        <v>45684</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58">
         <v>-11</v>
-      </c>
-      <c r="E58" s="2">
-        <v>45684</v>
       </c>
       <c r="F58">
         <v>59</v>
@@ -1629,17 +1629,17 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>3</v>
+      <c r="B59" s="2">
+        <v>45684</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59">
         <v>-72</v>
-      </c>
-      <c r="E59" s="2">
-        <v>45684</v>
       </c>
       <c r="F59">
         <v>60</v>
@@ -1649,17 +1649,17 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>0</v>
+      <c r="B60" s="2">
+        <v>45685</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60">
         <v>-10</v>
-      </c>
-      <c r="E60" s="2">
-        <v>45685</v>
       </c>
       <c r="F60">
         <v>61</v>
@@ -1669,17 +1669,17 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>0</v>
+      <c r="B61" s="2">
+        <v>45685</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61">
         <v>-13</v>
-      </c>
-      <c r="E61" s="2">
-        <v>45685</v>
       </c>
       <c r="F61">
         <v>62</v>
@@ -1689,17 +1689,17 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>3</v>
+      <c r="B62" s="2">
+        <v>45685</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62">
         <v>-56</v>
-      </c>
-      <c r="E62" s="2">
-        <v>45685</v>
       </c>
       <c r="F62">
         <v>63</v>
@@ -1709,17 +1709,17 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>0</v>
+      <c r="B63" s="2">
+        <v>45686</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63">
         <v>-11</v>
-      </c>
-      <c r="E63" s="2">
-        <v>45686</v>
       </c>
       <c r="F63">
         <v>64</v>
@@ -1729,17 +1729,17 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>3</v>
+      <c r="B64" s="2">
+        <v>45686</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64">
         <v>-12</v>
-      </c>
-      <c r="E64" s="2">
-        <v>45686</v>
       </c>
       <c r="F64">
         <v>65</v>
@@ -1749,17 +1749,17 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>0</v>
+      <c r="B65" s="2">
+        <v>45686</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65">
         <v>-17</v>
-      </c>
-      <c r="E65" s="2">
-        <v>45686</v>
       </c>
       <c r="F65">
         <v>66</v>
@@ -1769,17 +1769,17 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>3</v>
+      <c r="B66" s="2">
+        <v>45687</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66">
         <v>-12</v>
-      </c>
-      <c r="E66" s="2">
-        <v>45687</v>
       </c>
       <c r="F66">
         <v>67</v>
@@ -1789,17 +1789,17 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>0</v>
+      <c r="B67" s="2">
+        <v>45688</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67">
         <v>-1.5</v>
-      </c>
-      <c r="E67" s="2">
-        <v>45688</v>
       </c>
       <c r="F67">
         <v>68</v>
@@ -1809,17 +1809,17 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>8</v>
+      <c r="B68" s="2">
+        <v>45688</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68">
         <v>-800</v>
-      </c>
-      <c r="E68" s="2">
-        <v>45688</v>
       </c>
       <c r="F68">
         <v>69</v>
@@ -1829,17 +1829,17 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>10</v>
+      <c r="B69" s="2">
+        <v>45688</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69">
         <v>-14.99</v>
-      </c>
-      <c r="E69" s="2">
-        <v>45688</v>
       </c>
       <c r="F69">
         <v>70</v>
@@ -1849,17 +1849,17 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>12</v>
+      <c r="B70" s="2">
+        <v>45688</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70">
         <v>-40.1</v>
-      </c>
-      <c r="E70" s="2">
-        <v>45688</v>
       </c>
       <c r="F70">
         <v>71</v>
@@ -1869,17 +1869,17 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>12</v>
+      <c r="B71" s="2">
+        <v>45688</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71">
         <v>-51.6</v>
-      </c>
-      <c r="E71" s="2">
-        <v>45688</v>
       </c>
       <c r="F71">
         <v>72</v>
@@ -1889,17 +1889,17 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>12</v>
+      <c r="B72" s="2">
+        <v>45688</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72">
         <v>-20</v>
-      </c>
-      <c r="E72" s="2">
-        <v>45688</v>
       </c>
       <c r="F72">
         <v>73</v>
@@ -1909,17 +1909,17 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>3</v>
+      <c r="B73" s="2">
+        <v>45689</v>
       </c>
       <c r="C73" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73">
         <v>-12</v>
-      </c>
-      <c r="E73" s="2">
-        <v>45689</v>
       </c>
       <c r="F73">
         <v>75</v>
@@ -1929,17 +1929,17 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>3</v>
+      <c r="B74" s="2">
+        <v>45689</v>
       </c>
       <c r="C74" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74">
         <v>-12</v>
-      </c>
-      <c r="E74" s="2">
-        <v>45689</v>
       </c>
       <c r="F74">
         <v>76</v>
@@ -1949,17 +1949,17 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>3</v>
+      <c r="B75" s="2">
+        <v>45689</v>
       </c>
       <c r="C75" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75">
         <v>-15</v>
-      </c>
-      <c r="E75" s="2">
-        <v>45689</v>
       </c>
       <c r="F75">
         <v>77</v>
@@ -1969,17 +1969,17 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>0</v>
+      <c r="B76" s="2">
+        <v>45691</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76">
         <v>-1.5</v>
-      </c>
-      <c r="E76" s="2">
-        <v>45691</v>
       </c>
       <c r="F76">
         <v>79</v>
@@ -1989,17 +1989,17 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>0</v>
+      <c r="B77" s="2">
+        <v>45691</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77">
         <v>-18</v>
-      </c>
-      <c r="E77" s="2">
-        <v>45691</v>
       </c>
       <c r="F77">
         <v>80</v>
@@ -2009,17 +2009,17 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>0</v>
+      <c r="B78" s="2">
+        <v>45692</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78">
         <v>-11</v>
-      </c>
-      <c r="E78" s="2">
-        <v>45692</v>
       </c>
       <c r="F78">
         <v>81</v>
@@ -2029,17 +2029,17 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>3</v>
+      <c r="B79" s="2">
+        <v>45692</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79">
         <v>-14</v>
-      </c>
-      <c r="E79" s="2">
-        <v>45692</v>
       </c>
       <c r="F79">
         <v>82</v>
@@ -2049,17 +2049,17 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>0</v>
+      <c r="B80" s="2">
+        <v>45693</v>
       </c>
       <c r="C80" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80">
         <v>-2</v>
-      </c>
-      <c r="E80" s="2">
-        <v>45693</v>
       </c>
       <c r="F80">
         <v>83</v>
@@ -2069,17 +2069,17 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>0</v>
+      <c r="B81" s="2">
+        <v>45693</v>
       </c>
       <c r="C81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81">
         <v>-2.5</v>
-      </c>
-      <c r="E81" s="2">
-        <v>45693</v>
       </c>
       <c r="F81">
         <v>84</v>
@@ -2089,17 +2089,17 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>0</v>
+      <c r="B82" s="2">
+        <v>45694</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82">
         <v>-19</v>
-      </c>
-      <c r="E82" s="2">
-        <v>45694</v>
       </c>
       <c r="F82">
         <v>85</v>
@@ -2109,17 +2109,17 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>0</v>
+      <c r="B83" s="2">
+        <v>45694</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83">
         <v>-20</v>
-      </c>
-      <c r="E83" s="2">
-        <v>45694</v>
       </c>
       <c r="F83">
         <v>86</v>
@@ -2129,17 +2129,17 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>3</v>
+      <c r="B84" s="2">
+        <v>45695</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84">
         <v>-47</v>
-      </c>
-      <c r="E84" s="2">
-        <v>45695</v>
       </c>
       <c r="F84">
         <v>87</v>
@@ -2149,17 +2149,17 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>0</v>
+      <c r="B85" s="2">
+        <v>45696</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85">
         <v>-3</v>
-      </c>
-      <c r="E85" s="2">
-        <v>45696</v>
       </c>
       <c r="F85">
         <v>88</v>
@@ -2169,17 +2169,17 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>0</v>
+      <c r="B86" s="2">
+        <v>45696</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86">
         <v>-18</v>
-      </c>
-      <c r="E86" s="2">
-        <v>45696</v>
       </c>
       <c r="F86">
         <v>89</v>
@@ -2189,17 +2189,17 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>0</v>
+      <c r="B87" s="2">
+        <v>45697</v>
       </c>
       <c r="C87" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87">
         <v>-2.5</v>
-      </c>
-      <c r="E87" s="2">
-        <v>45697</v>
       </c>
       <c r="F87">
         <v>90</v>
@@ -2209,17 +2209,17 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>3</v>
+      <c r="B88" s="2">
+        <v>45697</v>
       </c>
       <c r="C88" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88">
         <v>-9</v>
-      </c>
-      <c r="E88" s="2">
-        <v>45697</v>
       </c>
       <c r="F88">
         <v>91</v>
@@ -2229,17 +2229,17 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>3</v>
+      <c r="B89" s="2">
+        <v>45697</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89">
         <v>-15</v>
-      </c>
-      <c r="E89" s="2">
-        <v>45697</v>
       </c>
       <c r="F89">
         <v>92</v>
@@ -2249,17 +2249,17 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>0</v>
+      <c r="B90" s="2">
+        <v>45698</v>
       </c>
       <c r="C90" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90">
         <v>-2.5</v>
-      </c>
-      <c r="E90" s="2">
-        <v>45698</v>
       </c>
       <c r="F90">
         <v>93</v>
@@ -2269,17 +2269,17 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>3</v>
+      <c r="B91" s="2">
+        <v>45698</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91">
         <v>-8</v>
-      </c>
-      <c r="E91" s="2">
-        <v>45698</v>
       </c>
       <c r="F91">
         <v>94</v>
@@ -2289,17 +2289,17 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>0</v>
+      <c r="B92" s="2">
+        <v>45698</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92">
         <v>-11</v>
-      </c>
-      <c r="E92" s="2">
-        <v>45698</v>
       </c>
       <c r="F92">
         <v>95</v>
@@ -2309,17 +2309,17 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>0</v>
+      <c r="B93" s="2">
+        <v>45699</v>
       </c>
       <c r="C93" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93">
         <v>-3</v>
-      </c>
-      <c r="E93" s="2">
-        <v>45699</v>
       </c>
       <c r="F93">
         <v>96</v>
@@ -2329,17 +2329,17 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>3</v>
+      <c r="B94" s="2">
+        <v>45699</v>
       </c>
       <c r="C94" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94">
         <v>-12</v>
-      </c>
-      <c r="E94" s="2">
-        <v>45699</v>
       </c>
       <c r="F94">
         <v>97</v>
@@ -2349,17 +2349,17 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>3</v>
+      <c r="B95" s="2">
+        <v>45701</v>
       </c>
       <c r="C95" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95">
         <v>-12</v>
-      </c>
-      <c r="E95" s="2">
-        <v>45701</v>
       </c>
       <c r="F95">
         <v>98</v>
@@ -2369,17 +2369,17 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>3</v>
+      <c r="B96" s="2">
+        <v>45701</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96">
         <v>-13</v>
-      </c>
-      <c r="E96" s="2">
-        <v>45701</v>
       </c>
       <c r="F96">
         <v>99</v>
@@ -2389,17 +2389,17 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>0</v>
+      <c r="B97" s="2">
+        <v>45703</v>
       </c>
       <c r="C97" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97">
         <v>-2</v>
-      </c>
-      <c r="E97" s="2">
-        <v>45703</v>
       </c>
       <c r="F97">
         <v>101</v>
@@ -2409,17 +2409,17 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
-        <v>0</v>
+      <c r="B98" s="2">
+        <v>45703</v>
       </c>
       <c r="C98" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98">
         <v>-3</v>
-      </c>
-      <c r="E98" s="2">
-        <v>45703</v>
       </c>
       <c r="F98">
         <v>102</v>
@@ -2429,17 +2429,17 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
-        <v>0</v>
+      <c r="B99" s="2">
+        <v>45703</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99">
         <v>-8</v>
-      </c>
-      <c r="E99" s="2">
-        <v>45703</v>
       </c>
       <c r="F99">
         <v>103</v>
@@ -2449,17 +2449,17 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
-        <v>3</v>
+      <c r="B100" s="2">
+        <v>45703</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100">
         <v>-15</v>
-      </c>
-      <c r="E100" s="2">
-        <v>45703</v>
       </c>
       <c r="F100">
         <v>104</v>
@@ -2469,17 +2469,17 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>0</v>
+      <c r="B101" s="2">
+        <v>45704</v>
       </c>
       <c r="C101" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101">
         <v>-2.5</v>
-      </c>
-      <c r="E101" s="2">
-        <v>45704</v>
       </c>
       <c r="F101">
         <v>105</v>
@@ -2489,17 +2489,17 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
-        <v>0</v>
+      <c r="B102" s="2">
+        <v>45705</v>
       </c>
       <c r="C102" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102">
         <v>-3</v>
-      </c>
-      <c r="E102" s="2">
-        <v>45705</v>
       </c>
       <c r="F102">
         <v>106</v>
@@ -2509,17 +2509,17 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
-        <v>3</v>
+      <c r="B103" s="2">
+        <v>45705</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103">
         <v>-48</v>
-      </c>
-      <c r="E103" s="2">
-        <v>45705</v>
       </c>
       <c r="F103">
         <v>107</v>
@@ -2529,17 +2529,17 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
-        <v>0</v>
+      <c r="B104" s="2">
+        <v>45706</v>
       </c>
       <c r="C104" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104">
         <v>-2</v>
-      </c>
-      <c r="E104" s="2">
-        <v>45706</v>
       </c>
       <c r="F104">
         <v>108</v>
@@ -2549,17 +2549,17 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
-        <v>0</v>
+      <c r="B105" s="2">
+        <v>45706</v>
       </c>
       <c r="C105" t="s">
-        <v>2</v>
-      </c>
-      <c r="D105">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105">
         <v>-2.5</v>
-      </c>
-      <c r="E105" s="2">
-        <v>45706</v>
       </c>
       <c r="F105">
         <v>109</v>
@@ -2569,17 +2569,17 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
-        <v>3</v>
+      <c r="B106" s="2">
+        <v>45706</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106">
         <v>-87</v>
-      </c>
-      <c r="E106" s="2">
-        <v>45706</v>
       </c>
       <c r="F106">
         <v>110</v>
@@ -2589,17 +2589,17 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
-        <v>3</v>
+      <c r="B107" s="2">
+        <v>45707</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107">
         <v>-37</v>
-      </c>
-      <c r="E107" s="2">
-        <v>45707</v>
       </c>
       <c r="F107">
         <v>111</v>
@@ -2609,17 +2609,17 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
-        <v>0</v>
+      <c r="B108" s="2">
+        <v>45708</v>
       </c>
       <c r="C108" t="s">
-        <v>1</v>
-      </c>
-      <c r="D108">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108">
         <v>-2.5</v>
-      </c>
-      <c r="E108" s="2">
-        <v>45708</v>
       </c>
       <c r="F108">
         <v>112</v>
@@ -2629,17 +2629,17 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
-        <v>3</v>
+      <c r="B109" s="2">
+        <v>45709</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109">
         <v>-14</v>
-      </c>
-      <c r="E109" s="2">
-        <v>45709</v>
       </c>
       <c r="F109">
         <v>113</v>
@@ -2649,17 +2649,17 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
-        <v>0</v>
+      <c r="B110" s="2">
+        <v>45709</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110">
         <v>-14</v>
-      </c>
-      <c r="E110" s="2">
-        <v>45709</v>
       </c>
       <c r="F110">
         <v>114</v>
@@ -2669,17 +2669,17 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
-        <v>3</v>
+      <c r="B111" s="2">
+        <v>45710</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111">
         <v>-11</v>
-      </c>
-      <c r="E111" s="2">
-        <v>45710</v>
       </c>
       <c r="F111">
         <v>115</v>
@@ -2689,17 +2689,17 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
-        <v>3</v>
+      <c r="B112" s="2">
+        <v>45710</v>
       </c>
       <c r="C112" t="s">
-        <v>4</v>
-      </c>
-      <c r="D112">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112">
         <v>-15</v>
-      </c>
-      <c r="E112" s="2">
-        <v>45710</v>
       </c>
       <c r="F112">
         <v>116</v>
@@ -2709,17 +2709,17 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
-        <v>3</v>
+      <c r="B113" s="2">
+        <v>45710</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113">
         <v>-15</v>
-      </c>
-      <c r="E113" s="2">
-        <v>45710</v>
       </c>
       <c r="F113">
         <v>117</v>
@@ -2729,17 +2729,17 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
-        <v>3</v>
+      <c r="B114" s="2">
+        <v>45711</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114">
         <v>-9</v>
-      </c>
-      <c r="E114" s="2">
-        <v>45711</v>
       </c>
       <c r="F114">
         <v>118</v>
@@ -2749,17 +2749,17 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
-        <v>0</v>
+      <c r="B115" s="2">
+        <v>45711</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
-      </c>
-      <c r="D115">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115">
         <v>-17</v>
-      </c>
-      <c r="E115" s="2">
-        <v>45711</v>
       </c>
       <c r="F115">
         <v>119</v>
@@ -2769,17 +2769,17 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
-        <v>3</v>
+      <c r="B116" s="2">
+        <v>45711</v>
       </c>
       <c r="C116" t="s">
-        <v>7</v>
-      </c>
-      <c r="D116">
+        <v>9</v>
+      </c>
+      <c r="D116" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116">
         <v>-76</v>
-      </c>
-      <c r="E116" s="2">
-        <v>45711</v>
       </c>
       <c r="F116">
         <v>120</v>
@@ -2789,17 +2789,17 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
-        <v>0</v>
+      <c r="B117" s="2">
+        <v>45712</v>
       </c>
       <c r="C117" t="s">
-        <v>1</v>
-      </c>
-      <c r="D117">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117">
         <v>-1.5</v>
-      </c>
-      <c r="E117" s="2">
-        <v>45712</v>
       </c>
       <c r="F117">
         <v>121</v>
@@ -2809,17 +2809,17 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
-        <v>0</v>
+      <c r="B118" s="2">
+        <v>45712</v>
       </c>
       <c r="C118" t="s">
-        <v>2</v>
-      </c>
-      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118">
         <v>-2.5</v>
-      </c>
-      <c r="E118" s="2">
-        <v>45712</v>
       </c>
       <c r="F118">
         <v>122</v>
@@ -2829,17 +2829,17 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
-        <v>0</v>
+      <c r="B119" s="2">
+        <v>45713</v>
       </c>
       <c r="C119" t="s">
-        <v>1</v>
-      </c>
-      <c r="D119">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119">
         <v>-3</v>
-      </c>
-      <c r="E119" s="2">
-        <v>45713</v>
       </c>
       <c r="F119">
         <v>123</v>
@@ -2849,17 +2849,17 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
-        <v>0</v>
+      <c r="B120" s="2">
+        <v>45714</v>
       </c>
       <c r="C120" t="s">
-        <v>2</v>
-      </c>
-      <c r="D120">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120">
         <v>-1.5</v>
-      </c>
-      <c r="E120" s="2">
-        <v>45714</v>
       </c>
       <c r="F120">
         <v>124</v>
@@ -2869,17 +2869,17 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
-        <v>3</v>
+      <c r="B121" s="2">
+        <v>45714</v>
       </c>
       <c r="C121" t="s">
-        <v>4</v>
-      </c>
-      <c r="D121">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121">
         <v>-11</v>
-      </c>
-      <c r="E121" s="2">
-        <v>45714</v>
       </c>
       <c r="F121">
         <v>125</v>
@@ -2889,17 +2889,17 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
-        <v>0</v>
+      <c r="B122" s="2">
+        <v>45716</v>
       </c>
       <c r="C122" t="s">
-        <v>1</v>
-      </c>
-      <c r="D122">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122">
         <v>-2.5</v>
-      </c>
-      <c r="E122" s="2">
-        <v>45716</v>
       </c>
       <c r="F122">
         <v>126</v>
@@ -2909,17 +2909,17 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
-        <v>3</v>
+      <c r="B123" s="2">
+        <v>45716</v>
       </c>
       <c r="C123" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123">
+        <v>9</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123">
         <v>-15</v>
-      </c>
-      <c r="E123" s="2">
-        <v>45716</v>
       </c>
       <c r="F123">
         <v>127</v>
@@ -2929,17 +2929,17 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
-        <v>0</v>
+      <c r="B124" s="2">
+        <v>45716</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124">
         <v>-20</v>
-      </c>
-      <c r="E124" s="2">
-        <v>45716</v>
       </c>
       <c r="F124">
         <v>128</v>
@@ -2949,17 +2949,17 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" t="s">
-        <v>8</v>
+      <c r="B125" s="2">
+        <v>45716</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125">
+        <v>14</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125">
         <v>-800</v>
-      </c>
-      <c r="E125" s="2">
-        <v>45716</v>
       </c>
       <c r="F125">
         <v>129</v>
@@ -2969,17 +2969,17 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
-        <v>10</v>
+      <c r="B126" s="2">
+        <v>45716</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126">
         <v>-14.99</v>
-      </c>
-      <c r="E126" s="2">
-        <v>45716</v>
       </c>
       <c r="F126">
         <v>130</v>
@@ -2989,17 +2989,17 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" t="s">
-        <v>12</v>
+      <c r="B127" s="2">
+        <v>45716</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127">
+        <v>18</v>
+      </c>
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127">
         <v>-40.700000000000003</v>
-      </c>
-      <c r="E127" s="2">
-        <v>45716</v>
       </c>
       <c r="F127">
         <v>131</v>
@@ -3009,17 +3009,17 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
-        <v>12</v>
+      <c r="B128" s="2">
+        <v>45716</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128">
+        <v>18</v>
+      </c>
+      <c r="D128" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128">
         <v>-49</v>
-      </c>
-      <c r="E128" s="2">
-        <v>45716</v>
       </c>
       <c r="F128">
         <v>132</v>
@@ -3029,17 +3029,17 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
-        <v>12</v>
+      <c r="B129" s="2">
+        <v>45716</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129">
+        <v>18</v>
+      </c>
+      <c r="D129" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129">
         <v>-20</v>
-      </c>
-      <c r="E129" s="2">
-        <v>45716</v>
       </c>
       <c r="F129">
         <v>133</v>
@@ -3049,17 +3049,17 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" t="s">
-        <v>0</v>
+      <c r="B130" s="2">
+        <v>45717</v>
       </c>
       <c r="C130" t="s">
-        <v>1</v>
-      </c>
-      <c r="D130">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130">
         <v>-3</v>
-      </c>
-      <c r="E130" s="2">
-        <v>45717</v>
       </c>
       <c r="F130">
         <v>135</v>
@@ -3069,17 +3069,17 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" t="s">
-        <v>0</v>
+      <c r="B131" s="2">
+        <v>45717</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
-      </c>
-      <c r="D131">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131">
         <v>-14</v>
-      </c>
-      <c r="E131" s="2">
-        <v>45717</v>
       </c>
       <c r="F131">
         <v>136</v>
@@ -3089,17 +3089,17 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
-        <v>0</v>
+      <c r="B132" s="2">
+        <v>45718</v>
       </c>
       <c r="C132" t="s">
-        <v>2</v>
-      </c>
-      <c r="D132">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132">
         <v>-3</v>
-      </c>
-      <c r="E132" s="2">
-        <v>45718</v>
       </c>
       <c r="F132">
         <v>138</v>
@@ -3109,17 +3109,17 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
-        <v>3</v>
+      <c r="B133" s="2">
+        <v>45719</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133">
+        <v>9</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133">
         <v>-9</v>
-      </c>
-      <c r="E133" s="2">
-        <v>45719</v>
       </c>
       <c r="F133">
         <v>139</v>
@@ -3129,17 +3129,17 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" t="s">
-        <v>3</v>
+      <c r="B134" s="2">
+        <v>45719</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
-      </c>
-      <c r="D134">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134">
         <v>-37</v>
-      </c>
-      <c r="E134" s="2">
-        <v>45719</v>
       </c>
       <c r="F134">
         <v>140</v>
@@ -3149,17 +3149,17 @@
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" t="s">
-        <v>3</v>
+      <c r="B135" s="2">
+        <v>45719</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
-      </c>
-      <c r="D135">
+        <v>9</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135">
         <v>-98</v>
-      </c>
-      <c r="E135" s="2">
-        <v>45719</v>
       </c>
       <c r="F135">
         <v>141</v>
@@ -3169,17 +3169,17 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
-        <v>0</v>
+      <c r="B136" s="2">
+        <v>45720</v>
       </c>
       <c r="C136" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136">
         <v>-2.5</v>
-      </c>
-      <c r="E136" s="2">
-        <v>45720</v>
       </c>
       <c r="F136">
         <v>142</v>
@@ -3189,17 +3189,17 @@
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" t="s">
-        <v>0</v>
+      <c r="B137" s="2">
+        <v>45720</v>
       </c>
       <c r="C137" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137">
         <v>-2.5</v>
-      </c>
-      <c r="E137" s="2">
-        <v>45720</v>
       </c>
       <c r="F137">
         <v>143</v>
@@ -3209,17 +3209,17 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" t="s">
-        <v>0</v>
+      <c r="B138" s="2">
+        <v>45720</v>
       </c>
       <c r="C138" t="s">
-        <v>1</v>
-      </c>
-      <c r="D138">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138">
         <v>-3</v>
-      </c>
-      <c r="E138" s="2">
-        <v>45720</v>
       </c>
       <c r="F138">
         <v>144</v>
@@ -3229,17 +3229,17 @@
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" t="s">
-        <v>3</v>
+      <c r="B139" s="2">
+        <v>45720</v>
       </c>
       <c r="C139" t="s">
-        <v>4</v>
-      </c>
-      <c r="D139">
+        <v>9</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139">
         <v>-10</v>
-      </c>
-      <c r="E139" s="2">
-        <v>45720</v>
       </c>
       <c r="F139">
         <v>145</v>
@@ -3249,17 +3249,17 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" t="s">
-        <v>0</v>
+      <c r="B140" s="2">
+        <v>45721</v>
       </c>
       <c r="C140" t="s">
-        <v>1</v>
-      </c>
-      <c r="D140">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140">
         <v>-2</v>
-      </c>
-      <c r="E140" s="2">
-        <v>45721</v>
       </c>
       <c r="F140">
         <v>146</v>
@@ -3269,17 +3269,17 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" t="s">
-        <v>0</v>
+      <c r="B141" s="2">
+        <v>45722</v>
       </c>
       <c r="C141" t="s">
-        <v>2</v>
-      </c>
-      <c r="D141">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141">
         <v>-1.5</v>
-      </c>
-      <c r="E141" s="2">
-        <v>45722</v>
       </c>
       <c r="F141">
         <v>147</v>
@@ -3289,17 +3289,17 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" t="s">
-        <v>0</v>
+      <c r="B142" s="2">
+        <v>45722</v>
       </c>
       <c r="C142" t="s">
-        <v>1</v>
-      </c>
-      <c r="D142">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142">
         <v>-1.5</v>
-      </c>
-      <c r="E142" s="2">
-        <v>45722</v>
       </c>
       <c r="F142">
         <v>148</v>
@@ -3309,17 +3309,17 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
-        <v>0</v>
+      <c r="B143" s="2">
+        <v>45723</v>
       </c>
       <c r="C143" t="s">
-        <v>1</v>
-      </c>
-      <c r="D143">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143">
         <v>-1.5</v>
-      </c>
-      <c r="E143" s="2">
-        <v>45723</v>
       </c>
       <c r="F143">
         <v>149</v>
@@ -3329,17 +3329,17 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" t="s">
-        <v>3</v>
+      <c r="B144" s="2">
+        <v>45723</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
-      </c>
-      <c r="D144">
+        <v>9</v>
+      </c>
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144">
         <v>-56</v>
-      </c>
-      <c r="E144" s="2">
-        <v>45723</v>
       </c>
       <c r="F144">
         <v>150</v>
@@ -3349,17 +3349,17 @@
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" t="s">
-        <v>3</v>
+      <c r="B145" s="2">
+        <v>45724</v>
       </c>
       <c r="C145" t="s">
-        <v>4</v>
-      </c>
-      <c r="D145">
+        <v>9</v>
+      </c>
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145">
         <v>-15</v>
-      </c>
-      <c r="E145" s="2">
-        <v>45724</v>
       </c>
       <c r="F145">
         <v>151</v>
@@ -3369,17 +3369,17 @@
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" t="s">
-        <v>0</v>
+      <c r="B146" s="2">
+        <v>45726</v>
       </c>
       <c r="C146" t="s">
-        <v>2</v>
-      </c>
-      <c r="D146">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146">
         <v>-1.5</v>
-      </c>
-      <c r="E146" s="2">
-        <v>45726</v>
       </c>
       <c r="F146">
         <v>152</v>
@@ -3389,17 +3389,17 @@
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" t="s">
-        <v>0</v>
+      <c r="B147" s="2">
+        <v>45726</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147">
         <v>-8</v>
-      </c>
-      <c r="E147" s="2">
-        <v>45726</v>
       </c>
       <c r="F147">
         <v>153</v>
@@ -3409,17 +3409,17 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
-        <v>3</v>
+      <c r="B148" s="2">
+        <v>45726</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148">
+        <v>9</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148">
         <v>-12</v>
-      </c>
-      <c r="E148" s="2">
-        <v>45726</v>
       </c>
       <c r="F148">
         <v>154</v>
@@ -3429,17 +3429,17 @@
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" t="s">
-        <v>0</v>
+      <c r="B149" s="2">
+        <v>45726</v>
       </c>
       <c r="C149" t="s">
-        <v>5</v>
-      </c>
-      <c r="D149">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149">
         <v>-20</v>
-      </c>
-      <c r="E149" s="2">
-        <v>45726</v>
       </c>
       <c r="F149">
         <v>155</v>
@@ -3449,17 +3449,17 @@
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" t="s">
-        <v>0</v>
+      <c r="B150" s="2">
+        <v>45727</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
-      </c>
-      <c r="D150">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150">
         <v>-11</v>
-      </c>
-      <c r="E150" s="2">
-        <v>45727</v>
       </c>
       <c r="F150">
         <v>156</v>
@@ -3469,17 +3469,17 @@
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
-        <v>3</v>
+      <c r="B151" s="2">
+        <v>45727</v>
       </c>
       <c r="C151" t="s">
-        <v>4</v>
-      </c>
-      <c r="D151">
+        <v>9</v>
+      </c>
+      <c r="D151" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151">
         <v>-14</v>
-      </c>
-      <c r="E151" s="2">
-        <v>45727</v>
       </c>
       <c r="F151">
         <v>157</v>
@@ -3489,17 +3489,17 @@
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" t="s">
-        <v>3</v>
+      <c r="B152" s="2">
+        <v>45728</v>
       </c>
       <c r="C152" t="s">
-        <v>4</v>
-      </c>
-      <c r="D152">
+        <v>9</v>
+      </c>
+      <c r="D152" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152">
         <v>-9</v>
-      </c>
-      <c r="E152" s="2">
-        <v>45728</v>
       </c>
       <c r="F152">
         <v>158</v>
@@ -3509,17 +3509,17 @@
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
-        <v>0</v>
+      <c r="B153" s="2">
+        <v>45728</v>
       </c>
       <c r="C153" t="s">
-        <v>5</v>
-      </c>
-      <c r="D153">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153">
         <v>-10</v>
-      </c>
-      <c r="E153" s="2">
-        <v>45728</v>
       </c>
       <c r="F153">
         <v>159</v>
@@ -3529,17 +3529,17 @@
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" t="s">
-        <v>0</v>
+      <c r="B154" s="2">
+        <v>45728</v>
       </c>
       <c r="C154" t="s">
-        <v>5</v>
-      </c>
-      <c r="D154">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154">
         <v>-20</v>
-      </c>
-      <c r="E154" s="2">
-        <v>45728</v>
       </c>
       <c r="F154">
         <v>160</v>
@@ -3549,17 +3549,17 @@
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" t="s">
-        <v>0</v>
+      <c r="B155" s="2">
+        <v>45729</v>
       </c>
       <c r="C155" t="s">
-        <v>2</v>
-      </c>
-      <c r="D155">
+        <v>6</v>
+      </c>
+      <c r="D155" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155">
         <v>-3</v>
-      </c>
-      <c r="E155" s="2">
-        <v>45729</v>
       </c>
       <c r="F155">
         <v>161</v>
@@ -3569,17 +3569,17 @@
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" t="s">
-        <v>3</v>
+      <c r="B156" s="2">
+        <v>45729</v>
       </c>
       <c r="C156" t="s">
-        <v>7</v>
-      </c>
-      <c r="D156">
+        <v>9</v>
+      </c>
+      <c r="D156" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156">
         <v>-80</v>
-      </c>
-      <c r="E156" s="2">
-        <v>45729</v>
       </c>
       <c r="F156">
         <v>162</v>
@@ -3589,17 +3589,17 @@
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" t="s">
-        <v>3</v>
+      <c r="B157" s="2">
+        <v>45730</v>
       </c>
       <c r="C157" t="s">
-        <v>7</v>
-      </c>
-      <c r="D157">
+        <v>9</v>
+      </c>
+      <c r="D157" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157">
         <v>-97</v>
-      </c>
-      <c r="E157" s="2">
-        <v>45730</v>
       </c>
       <c r="F157">
         <v>163</v>
@@ -3609,17 +3609,17 @@
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" t="s">
-        <v>0</v>
+      <c r="B158" s="2">
+        <v>45732</v>
       </c>
       <c r="C158" t="s">
-        <v>1</v>
-      </c>
-      <c r="D158">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158">
         <v>-1.5</v>
-      </c>
-      <c r="E158" s="2">
-        <v>45732</v>
       </c>
       <c r="F158">
         <v>164</v>
@@ -3629,17 +3629,17 @@
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" t="s">
-        <v>0</v>
+      <c r="B159" s="2">
+        <v>45732</v>
       </c>
       <c r="C159" t="s">
-        <v>5</v>
-      </c>
-      <c r="D159">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159">
         <v>-11</v>
-      </c>
-      <c r="E159" s="2">
-        <v>45732</v>
       </c>
       <c r="F159">
         <v>165</v>
@@ -3649,17 +3649,17 @@
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" t="s">
-        <v>3</v>
+      <c r="B160" s="2">
+        <v>45732</v>
       </c>
       <c r="C160" t="s">
-        <v>4</v>
-      </c>
-      <c r="D160">
+        <v>9</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160">
         <v>-12</v>
-      </c>
-      <c r="E160" s="2">
-        <v>45732</v>
       </c>
       <c r="F160">
         <v>166</v>
@@ -3669,17 +3669,17 @@
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" t="s">
-        <v>3</v>
+      <c r="B161" s="2">
+        <v>45733</v>
       </c>
       <c r="C161" t="s">
-        <v>4</v>
-      </c>
-      <c r="D161">
+        <v>9</v>
+      </c>
+      <c r="D161" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161">
         <v>-10</v>
-      </c>
-      <c r="E161" s="2">
-        <v>45733</v>
       </c>
       <c r="F161">
         <v>167</v>
@@ -3689,17 +3689,17 @@
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" t="s">
-        <v>3</v>
+      <c r="B162" s="2">
+        <v>45733</v>
       </c>
       <c r="C162" t="s">
-        <v>7</v>
-      </c>
-      <c r="D162">
+        <v>9</v>
+      </c>
+      <c r="D162" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162">
         <v>-98</v>
-      </c>
-      <c r="E162" s="2">
-        <v>45733</v>
       </c>
       <c r="F162">
         <v>168</v>
@@ -3709,17 +3709,17 @@
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" t="s">
-        <v>0</v>
+      <c r="B163" s="2">
+        <v>45734</v>
       </c>
       <c r="C163" t="s">
-        <v>2</v>
-      </c>
-      <c r="D163">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163">
         <v>-2.5</v>
-      </c>
-      <c r="E163" s="2">
-        <v>45734</v>
       </c>
       <c r="F163">
         <v>169</v>
@@ -3729,17 +3729,17 @@
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
-        <v>0</v>
+      <c r="B164" s="2">
+        <v>45734</v>
       </c>
       <c r="C164" t="s">
-        <v>2</v>
-      </c>
-      <c r="D164">
+        <v>6</v>
+      </c>
+      <c r="D164" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164">
         <v>-3</v>
-      </c>
-      <c r="E164" s="2">
-        <v>45734</v>
       </c>
       <c r="F164">
         <v>170</v>
@@ -3749,17 +3749,17 @@
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" t="s">
-        <v>0</v>
+      <c r="B165" s="2">
+        <v>45734</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
-      </c>
-      <c r="D165">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165">
         <v>-8</v>
-      </c>
-      <c r="E165" s="2">
-        <v>45734</v>
       </c>
       <c r="F165">
         <v>171</v>
@@ -3769,17 +3769,17 @@
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
-        <v>3</v>
+      <c r="B166" s="2">
+        <v>45734</v>
       </c>
       <c r="C166" t="s">
-        <v>4</v>
-      </c>
-      <c r="D166">
+        <v>9</v>
+      </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166">
         <v>-9</v>
-      </c>
-      <c r="E166" s="2">
-        <v>45734</v>
       </c>
       <c r="F166">
         <v>172</v>
@@ -3789,17 +3789,17 @@
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" t="s">
-        <v>3</v>
+      <c r="B167" s="2">
+        <v>45734</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
-      </c>
-      <c r="D167">
+        <v>9</v>
+      </c>
+      <c r="D167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167">
         <v>-11</v>
-      </c>
-      <c r="E167" s="2">
-        <v>45734</v>
       </c>
       <c r="F167">
         <v>173</v>
@@ -3809,17 +3809,17 @@
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" t="s">
-        <v>0</v>
+      <c r="B168" s="2">
+        <v>45734</v>
       </c>
       <c r="C168" t="s">
-        <v>5</v>
-      </c>
-      <c r="D168">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168">
         <v>-14</v>
-      </c>
-      <c r="E168" s="2">
-        <v>45734</v>
       </c>
       <c r="F168">
         <v>174</v>
@@ -3829,17 +3829,17 @@
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
-        <v>0</v>
+      <c r="B169" s="2">
+        <v>45735</v>
       </c>
       <c r="C169" t="s">
-        <v>1</v>
-      </c>
-      <c r="D169">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169">
         <v>-2.5</v>
-      </c>
-      <c r="E169" s="2">
-        <v>45735</v>
       </c>
       <c r="F169">
         <v>175</v>
@@ -3849,17 +3849,17 @@
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
-        <v>0</v>
+      <c r="B170" s="2">
+        <v>45735</v>
       </c>
       <c r="C170" t="s">
-        <v>1</v>
-      </c>
-      <c r="D170">
+        <v>6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170">
         <v>-3</v>
-      </c>
-      <c r="E170" s="2">
-        <v>45735</v>
       </c>
       <c r="F170">
         <v>176</v>
@@ -3869,17 +3869,17 @@
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
-        <v>0</v>
+      <c r="B171" s="2">
+        <v>45736</v>
       </c>
       <c r="C171" t="s">
-        <v>1</v>
-      </c>
-      <c r="D171">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171">
         <v>-2.5</v>
-      </c>
-      <c r="E171" s="2">
-        <v>45736</v>
       </c>
       <c r="F171">
         <v>177</v>
@@ -3889,17 +3889,17 @@
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" t="s">
-        <v>3</v>
+      <c r="B172" s="2">
+        <v>45736</v>
       </c>
       <c r="C172" t="s">
-        <v>4</v>
-      </c>
-      <c r="D172">
+        <v>9</v>
+      </c>
+      <c r="D172" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172">
         <v>-8</v>
-      </c>
-      <c r="E172" s="2">
-        <v>45736</v>
       </c>
       <c r="F172">
         <v>178</v>
@@ -3909,17 +3909,17 @@
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" t="s">
-        <v>0</v>
+      <c r="B173" s="2">
+        <v>45737</v>
       </c>
       <c r="C173" t="s">
-        <v>1</v>
-      </c>
-      <c r="D173">
+        <v>6</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173">
         <v>-1.5</v>
-      </c>
-      <c r="E173" s="2">
-        <v>45737</v>
       </c>
       <c r="F173">
         <v>179</v>
@@ -3929,17 +3929,17 @@
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" t="s">
-        <v>0</v>
+      <c r="B174" s="2">
+        <v>45737</v>
       </c>
       <c r="C174" t="s">
-        <v>1</v>
-      </c>
-      <c r="D174">
+        <v>6</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174">
         <v>-2</v>
-      </c>
-      <c r="E174" s="2">
-        <v>45737</v>
       </c>
       <c r="F174">
         <v>180</v>
@@ -3949,17 +3949,17 @@
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
-        <v>0</v>
+      <c r="B175" s="2">
+        <v>45737</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
-      </c>
-      <c r="D175">
+        <v>6</v>
+      </c>
+      <c r="D175" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175">
         <v>-10</v>
-      </c>
-      <c r="E175" s="2">
-        <v>45737</v>
       </c>
       <c r="F175">
         <v>181</v>
@@ -3969,17 +3969,17 @@
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" t="s">
-        <v>3</v>
+      <c r="B176" s="2">
+        <v>45737</v>
       </c>
       <c r="C176" t="s">
-        <v>7</v>
-      </c>
-      <c r="D176">
+        <v>9</v>
+      </c>
+      <c r="D176" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176">
         <v>-55</v>
-      </c>
-      <c r="E176" s="2">
-        <v>45737</v>
       </c>
       <c r="F176">
         <v>182</v>
@@ -3989,17 +3989,17 @@
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" t="s">
-        <v>0</v>
+      <c r="B177" s="2">
+        <v>45738</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
-      </c>
-      <c r="D177">
+        <v>6</v>
+      </c>
+      <c r="D177" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177">
         <v>-18</v>
-      </c>
-      <c r="E177" s="2">
-        <v>45738</v>
       </c>
       <c r="F177">
         <v>183</v>
@@ -4009,17 +4009,17 @@
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" t="s">
-        <v>3</v>
+      <c r="B178" s="2">
+        <v>45738</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
-      </c>
-      <c r="D178">
+        <v>9</v>
+      </c>
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178">
         <v>-37</v>
-      </c>
-      <c r="E178" s="2">
-        <v>45738</v>
       </c>
       <c r="F178">
         <v>184</v>
@@ -4029,17 +4029,17 @@
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" t="s">
-        <v>0</v>
+      <c r="B179" s="2">
+        <v>45740</v>
       </c>
       <c r="C179" t="s">
-        <v>2</v>
-      </c>
-      <c r="D179">
+        <v>6</v>
+      </c>
+      <c r="D179" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179">
         <v>-2.5</v>
-      </c>
-      <c r="E179" s="2">
-        <v>45740</v>
       </c>
       <c r="F179">
         <v>185</v>
@@ -4049,17 +4049,17 @@
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" t="s">
-        <v>0</v>
+      <c r="B180" s="2">
+        <v>45740</v>
       </c>
       <c r="C180" t="s">
-        <v>1</v>
-      </c>
-      <c r="D180">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180">
         <v>-3</v>
-      </c>
-      <c r="E180" s="2">
-        <v>45740</v>
       </c>
       <c r="F180">
         <v>186</v>
@@ -4069,17 +4069,17 @@
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" t="s">
-        <v>3</v>
+      <c r="B181" s="2">
+        <v>45740</v>
       </c>
       <c r="C181" t="s">
-        <v>6</v>
-      </c>
-      <c r="D181">
+        <v>9</v>
+      </c>
+      <c r="D181" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181">
         <v>-14</v>
-      </c>
-      <c r="E181" s="2">
-        <v>45740</v>
       </c>
       <c r="F181">
         <v>187</v>
@@ -4089,17 +4089,17 @@
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" t="s">
-        <v>3</v>
+      <c r="B182" s="2">
+        <v>45740</v>
       </c>
       <c r="C182" t="s">
-        <v>7</v>
-      </c>
-      <c r="D182">
+        <v>9</v>
+      </c>
+      <c r="D182" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182">
         <v>-33</v>
-      </c>
-      <c r="E182" s="2">
-        <v>45740</v>
       </c>
       <c r="F182">
         <v>188</v>
@@ -4109,17 +4109,17 @@
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" t="s">
-        <v>3</v>
+      <c r="B183" s="2">
+        <v>45740</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
-      </c>
-      <c r="D183">
+        <v>9</v>
+      </c>
+      <c r="D183" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183">
         <v>-56</v>
-      </c>
-      <c r="E183" s="2">
-        <v>45740</v>
       </c>
       <c r="F183">
         <v>189</v>
@@ -4129,17 +4129,17 @@
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" t="s">
-        <v>0</v>
+      <c r="B184" s="2">
+        <v>45741</v>
       </c>
       <c r="C184" t="s">
-        <v>1</v>
-      </c>
-      <c r="D184">
+        <v>6</v>
+      </c>
+      <c r="D184" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184">
         <v>-1.5</v>
-      </c>
-      <c r="E184" s="2">
-        <v>45741</v>
       </c>
       <c r="F184">
         <v>190</v>
@@ -4149,17 +4149,17 @@
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" t="s">
-        <v>0</v>
+      <c r="B185" s="2">
+        <v>45741</v>
       </c>
       <c r="C185" t="s">
-        <v>1</v>
-      </c>
-      <c r="D185">
+        <v>6</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185">
         <v>-3</v>
-      </c>
-      <c r="E185" s="2">
-        <v>45741</v>
       </c>
       <c r="F185">
         <v>191</v>
@@ -4169,17 +4169,17 @@
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" t="s">
-        <v>3</v>
+      <c r="B186" s="2">
+        <v>45741</v>
       </c>
       <c r="C186" t="s">
-        <v>7</v>
-      </c>
-      <c r="D186">
+        <v>9</v>
+      </c>
+      <c r="D186" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186">
         <v>-47</v>
-      </c>
-      <c r="E186" s="2">
-        <v>45741</v>
       </c>
       <c r="F186">
         <v>192</v>
@@ -4189,17 +4189,17 @@
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" t="s">
-        <v>0</v>
+      <c r="B187" s="2">
+        <v>45742</v>
       </c>
       <c r="C187" t="s">
-        <v>2</v>
-      </c>
-      <c r="D187">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187">
         <v>-2.5</v>
-      </c>
-      <c r="E187" s="2">
-        <v>45742</v>
       </c>
       <c r="F187">
         <v>193</v>
@@ -4209,17 +4209,17 @@
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" t="s">
-        <v>0</v>
+      <c r="B188" s="2">
+        <v>45743</v>
       </c>
       <c r="C188" t="s">
-        <v>2</v>
-      </c>
-      <c r="D188">
+        <v>6</v>
+      </c>
+      <c r="D188" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188">
         <v>-2.5</v>
-      </c>
-      <c r="E188" s="2">
-        <v>45743</v>
       </c>
       <c r="F188">
         <v>194</v>
@@ -4229,17 +4229,17 @@
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" t="s">
-        <v>0</v>
+      <c r="B189" s="2">
+        <v>45743</v>
       </c>
       <c r="C189" t="s">
-        <v>2</v>
-      </c>
-      <c r="D189">
+        <v>6</v>
+      </c>
+      <c r="D189" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189">
         <v>-3</v>
-      </c>
-      <c r="E189" s="2">
-        <v>45743</v>
       </c>
       <c r="F189">
         <v>195</v>
@@ -4249,17 +4249,17 @@
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" t="s">
-        <v>3</v>
+      <c r="B190" s="2">
+        <v>45743</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
-      </c>
-      <c r="D190">
+        <v>9</v>
+      </c>
+      <c r="D190" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190">
         <v>-9</v>
-      </c>
-      <c r="E190" s="2">
-        <v>45743</v>
       </c>
       <c r="F190">
         <v>196</v>
@@ -4269,17 +4269,17 @@
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" t="s">
-        <v>0</v>
+      <c r="B191" s="2">
+        <v>45744</v>
       </c>
       <c r="C191" t="s">
-        <v>1</v>
-      </c>
-      <c r="D191">
+        <v>6</v>
+      </c>
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191">
         <v>-2</v>
-      </c>
-      <c r="E191" s="2">
-        <v>45744</v>
       </c>
       <c r="F191">
         <v>197</v>
@@ -4289,17 +4289,17 @@
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" t="s">
-        <v>0</v>
+      <c r="B192" s="2">
+        <v>45744</v>
       </c>
       <c r="C192" t="s">
-        <v>5</v>
-      </c>
-      <c r="D192">
+        <v>6</v>
+      </c>
+      <c r="D192" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192">
         <v>-8</v>
-      </c>
-      <c r="E192" s="2">
-        <v>45744</v>
       </c>
       <c r="F192">
         <v>198</v>
@@ -4309,17 +4309,17 @@
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" t="s">
-        <v>0</v>
+      <c r="B193" s="2">
+        <v>45744</v>
       </c>
       <c r="C193" t="s">
-        <v>5</v>
-      </c>
-      <c r="D193">
+        <v>6</v>
+      </c>
+      <c r="D193" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193">
         <v>-14</v>
-      </c>
-      <c r="E193" s="2">
-        <v>45744</v>
       </c>
       <c r="F193">
         <v>199</v>
@@ -4329,17 +4329,17 @@
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" t="s">
-        <v>3</v>
+      <c r="B194" s="2">
+        <v>45745</v>
       </c>
       <c r="C194" t="s">
-        <v>4</v>
-      </c>
-      <c r="D194">
+        <v>9</v>
+      </c>
+      <c r="D194" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194">
         <v>-13</v>
-      </c>
-      <c r="E194" s="2">
-        <v>45745</v>
       </c>
       <c r="F194">
         <v>200</v>
@@ -4349,17 +4349,17 @@
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" t="s">
-        <v>3</v>
+      <c r="B195" s="2">
+        <v>45746</v>
       </c>
       <c r="C195" t="s">
-        <v>4</v>
-      </c>
-      <c r="D195">
+        <v>9</v>
+      </c>
+      <c r="D195" t="s">
+        <v>10</v>
+      </c>
+      <c r="E195">
         <v>-10</v>
-      </c>
-      <c r="E195" s="2">
-        <v>45746</v>
       </c>
       <c r="F195">
         <v>201</v>
@@ -4369,17 +4369,17 @@
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" t="s">
-        <v>3</v>
+      <c r="B196" s="2">
+        <v>45746</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
-      </c>
-      <c r="D196">
+        <v>9</v>
+      </c>
+      <c r="D196" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196">
         <v>-12</v>
-      </c>
-      <c r="E196" s="2">
-        <v>45746</v>
       </c>
       <c r="F196">
         <v>202</v>
@@ -4389,17 +4389,17 @@
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" t="s">
-        <v>0</v>
+      <c r="B197" s="2">
+        <v>45747</v>
       </c>
       <c r="C197" t="s">
-        <v>5</v>
-      </c>
-      <c r="D197">
+        <v>6</v>
+      </c>
+      <c r="D197" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197">
         <v>-19</v>
-      </c>
-      <c r="E197" s="2">
-        <v>45747</v>
       </c>
       <c r="F197">
         <v>203</v>
@@ -4409,17 +4409,17 @@
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" t="s">
-        <v>0</v>
+      <c r="B198" s="2">
+        <v>45747</v>
       </c>
       <c r="C198" t="s">
-        <v>5</v>
-      </c>
-      <c r="D198">
+        <v>6</v>
+      </c>
+      <c r="D198" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198">
         <v>-19</v>
-      </c>
-      <c r="E198" s="2">
-        <v>45747</v>
       </c>
       <c r="F198">
         <v>204</v>
@@ -4429,17 +4429,17 @@
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" t="s">
-        <v>3</v>
+      <c r="B199" s="2">
+        <v>45747</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
-      </c>
-      <c r="D199">
+        <v>9</v>
+      </c>
+      <c r="D199" t="s">
+        <v>13</v>
+      </c>
+      <c r="E199">
         <v>-87</v>
-      </c>
-      <c r="E199" s="2">
-        <v>45747</v>
       </c>
       <c r="F199">
         <v>205</v>
@@ -4449,17 +4449,17 @@
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" t="s">
-        <v>8</v>
+      <c r="B200" s="2">
+        <v>45747</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200">
+        <v>14</v>
+      </c>
+      <c r="D200" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200">
         <v>-900</v>
-      </c>
-      <c r="E200" s="2">
-        <v>45747</v>
       </c>
       <c r="F200">
         <v>206</v>
@@ -4469,17 +4469,17 @@
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" t="s">
-        <v>10</v>
+      <c r="B201" s="2">
+        <v>45747</v>
       </c>
       <c r="C201" t="s">
-        <v>11</v>
-      </c>
-      <c r="D201">
+        <v>16</v>
+      </c>
+      <c r="D201" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201">
         <v>-14.99</v>
-      </c>
-      <c r="E201" s="2">
-        <v>45747</v>
       </c>
       <c r="F201">
         <v>207</v>
@@ -4489,17 +4489,17 @@
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" t="s">
-        <v>12</v>
+      <c r="B202" s="2">
+        <v>45747</v>
       </c>
       <c r="C202" t="s">
-        <v>13</v>
-      </c>
-      <c r="D202">
+        <v>18</v>
+      </c>
+      <c r="D202" t="s">
+        <v>19</v>
+      </c>
+      <c r="E202">
         <v>-39</v>
-      </c>
-      <c r="E202" s="2">
-        <v>45747</v>
       </c>
       <c r="F202">
         <v>208</v>
@@ -4509,17 +4509,17 @@
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" t="s">
-        <v>12</v>
+      <c r="B203" s="2">
+        <v>45747</v>
       </c>
       <c r="C203" t="s">
-        <v>14</v>
-      </c>
-      <c r="D203">
+        <v>18</v>
+      </c>
+      <c r="D203" t="s">
+        <v>20</v>
+      </c>
+      <c r="E203">
         <v>-47.1</v>
-      </c>
-      <c r="E203" s="2">
-        <v>45747</v>
       </c>
       <c r="F203">
         <v>209</v>
@@ -4529,17 +4529,17 @@
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
-        <v>12</v>
+      <c r="B204" s="2">
+        <v>45747</v>
       </c>
       <c r="C204" t="s">
-        <v>15</v>
-      </c>
-      <c r="D204">
+        <v>18</v>
+      </c>
+      <c r="D204" t="s">
+        <v>21</v>
+      </c>
+      <c r="E204">
         <v>-20</v>
-      </c>
-      <c r="E204" s="2">
-        <v>45747</v>
       </c>
       <c r="F204">
         <v>210</v>
@@ -4549,17 +4549,17 @@
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" t="s">
-        <v>0</v>
+      <c r="B205" s="2">
+        <v>45748</v>
       </c>
       <c r="C205" t="s">
-        <v>1</v>
-      </c>
-      <c r="D205">
+        <v>6</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205">
         <v>-2</v>
-      </c>
-      <c r="E205" s="2">
-        <v>45748</v>
       </c>
       <c r="F205">
         <v>212</v>
@@ -4569,17 +4569,17 @@
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" t="s">
-        <v>3</v>
+      <c r="B206" s="2">
+        <v>45748</v>
       </c>
       <c r="C206" t="s">
-        <v>4</v>
-      </c>
-      <c r="D206">
+        <v>9</v>
+      </c>
+      <c r="D206" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206">
         <v>-11</v>
-      </c>
-      <c r="E206" s="2">
-        <v>45748</v>
       </c>
       <c r="F206">
         <v>213</v>
@@ -4589,17 +4589,17 @@
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" t="s">
-        <v>3</v>
+      <c r="B207" s="2">
+        <v>45748</v>
       </c>
       <c r="C207" t="s">
-        <v>6</v>
-      </c>
-      <c r="D207">
+        <v>9</v>
+      </c>
+      <c r="D207" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207">
         <v>-15</v>
-      </c>
-      <c r="E207" s="2">
-        <v>45748</v>
       </c>
       <c r="F207">
         <v>214</v>
@@ -4609,17 +4609,17 @@
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" t="s">
-        <v>3</v>
+      <c r="B208" s="2">
+        <v>45748</v>
       </c>
       <c r="C208" t="s">
-        <v>7</v>
-      </c>
-      <c r="D208">
+        <v>9</v>
+      </c>
+      <c r="D208" t="s">
+        <v>13</v>
+      </c>
+      <c r="E208">
         <v>-55</v>
-      </c>
-      <c r="E208" s="2">
-        <v>45748</v>
       </c>
       <c r="F208">
         <v>215</v>
@@ -4629,17 +4629,17 @@
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" t="s">
-        <v>0</v>
+      <c r="B209" s="2">
+        <v>45749</v>
       </c>
       <c r="C209" t="s">
-        <v>1</v>
-      </c>
-      <c r="D209">
+        <v>6</v>
+      </c>
+      <c r="D209" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209">
         <v>-2.5</v>
-      </c>
-      <c r="E209" s="2">
-        <v>45749</v>
       </c>
       <c r="F209">
         <v>217</v>
@@ -4649,17 +4649,17 @@
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" t="s">
-        <v>0</v>
+      <c r="B210" s="2">
+        <v>45750</v>
       </c>
       <c r="C210" t="s">
-        <v>5</v>
-      </c>
-      <c r="D210">
+        <v>6</v>
+      </c>
+      <c r="D210" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210">
         <v>-11</v>
-      </c>
-      <c r="E210" s="2">
-        <v>45750</v>
       </c>
       <c r="F210">
         <v>218</v>
@@ -4669,17 +4669,17 @@
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" t="s">
-        <v>0</v>
+      <c r="B211" s="2">
+        <v>45750</v>
       </c>
       <c r="C211" t="s">
-        <v>5</v>
-      </c>
-      <c r="D211">
+        <v>6</v>
+      </c>
+      <c r="D211" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211">
         <v>-14</v>
-      </c>
-      <c r="E211" s="2">
-        <v>45750</v>
       </c>
       <c r="F211">
         <v>219</v>
@@ -4689,17 +4689,17 @@
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" t="s">
-        <v>0</v>
+      <c r="B212" s="2">
+        <v>45751</v>
       </c>
       <c r="C212" t="s">
-        <v>1</v>
-      </c>
-      <c r="D212">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212">
         <v>-2</v>
-      </c>
-      <c r="E212" s="2">
-        <v>45751</v>
       </c>
       <c r="F212">
         <v>220</v>
@@ -4709,17 +4709,17 @@
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" t="s">
-        <v>0</v>
+      <c r="B213" s="2">
+        <v>45751</v>
       </c>
       <c r="C213" t="s">
-        <v>1</v>
-      </c>
-      <c r="D213">
+        <v>6</v>
+      </c>
+      <c r="D213" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213">
         <v>-2</v>
-      </c>
-      <c r="E213" s="2">
-        <v>45751</v>
       </c>
       <c r="F213">
         <v>221</v>
@@ -4729,17 +4729,17 @@
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" t="s">
-        <v>0</v>
+      <c r="B214" s="2">
+        <v>45752</v>
       </c>
       <c r="C214" t="s">
-        <v>2</v>
-      </c>
-      <c r="D214">
+        <v>6</v>
+      </c>
+      <c r="D214" t="s">
+        <v>8</v>
+      </c>
+      <c r="E214">
         <v>-2</v>
-      </c>
-      <c r="E214" s="2">
-        <v>45752</v>
       </c>
       <c r="F214">
         <v>222</v>
@@ -4749,17 +4749,17 @@
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" t="s">
-        <v>0</v>
+      <c r="B215" s="2">
+        <v>45753</v>
       </c>
       <c r="C215" t="s">
-        <v>2</v>
-      </c>
-      <c r="D215">
+        <v>6</v>
+      </c>
+      <c r="D215" t="s">
+        <v>8</v>
+      </c>
+      <c r="E215">
         <v>-2.5</v>
-      </c>
-      <c r="E215" s="2">
-        <v>45753</v>
       </c>
       <c r="F215">
         <v>223</v>
@@ -4769,17 +4769,17 @@
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" t="s">
-        <v>0</v>
+      <c r="B216" s="2">
+        <v>45754</v>
       </c>
       <c r="C216" t="s">
-        <v>5</v>
-      </c>
-      <c r="D216">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216">
         <v>-8</v>
-      </c>
-      <c r="E216" s="2">
-        <v>45754</v>
       </c>
       <c r="F216">
         <v>224</v>
@@ -4789,17 +4789,17 @@
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" t="s">
-        <v>3</v>
+      <c r="B217" s="2">
+        <v>45754</v>
       </c>
       <c r="C217" t="s">
-        <v>4</v>
-      </c>
-      <c r="D217">
+        <v>9</v>
+      </c>
+      <c r="D217" t="s">
+        <v>10</v>
+      </c>
+      <c r="E217">
         <v>-11</v>
-      </c>
-      <c r="E217" s="2">
-        <v>45754</v>
       </c>
       <c r="F217">
         <v>225</v>
@@ -4809,17 +4809,17 @@
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" t="s">
-        <v>0</v>
+      <c r="B218" s="2">
+        <v>45755</v>
       </c>
       <c r="C218" t="s">
-        <v>5</v>
-      </c>
-      <c r="D218">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>11</v>
+      </c>
+      <c r="E218">
         <v>-9</v>
-      </c>
-      <c r="E218" s="2">
-        <v>45755</v>
       </c>
       <c r="F218">
         <v>226</v>
@@ -4829,17 +4829,17 @@
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" t="s">
-        <v>3</v>
+      <c r="B219" s="2">
+        <v>45755</v>
       </c>
       <c r="C219" t="s">
-        <v>6</v>
-      </c>
-      <c r="D219">
+        <v>9</v>
+      </c>
+      <c r="D219" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219">
         <v>-10</v>
-      </c>
-      <c r="E219" s="2">
-        <v>45755</v>
       </c>
       <c r="F219">
         <v>227</v>
@@ -4849,17 +4849,17 @@
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" t="s">
-        <v>0</v>
+      <c r="B220" s="2">
+        <v>45756</v>
       </c>
       <c r="C220" t="s">
-        <v>1</v>
-      </c>
-      <c r="D220">
+        <v>6</v>
+      </c>
+      <c r="D220" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220">
         <v>-2</v>
-      </c>
-      <c r="E220" s="2">
-        <v>45756</v>
       </c>
       <c r="F220">
         <v>228</v>
@@ -4869,17 +4869,17 @@
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" t="s">
-        <v>0</v>
+      <c r="B221" s="2">
+        <v>45756</v>
       </c>
       <c r="C221" t="s">
-        <v>2</v>
-      </c>
-      <c r="D221">
+        <v>6</v>
+      </c>
+      <c r="D221" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221">
         <v>-2</v>
-      </c>
-      <c r="E221" s="2">
-        <v>45756</v>
       </c>
       <c r="F221">
         <v>229</v>
@@ -4889,17 +4889,17 @@
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" t="s">
-        <v>3</v>
+      <c r="B222" s="2">
+        <v>45756</v>
       </c>
       <c r="C222" t="s">
-        <v>4</v>
-      </c>
-      <c r="D222">
+        <v>9</v>
+      </c>
+      <c r="D222" t="s">
+        <v>10</v>
+      </c>
+      <c r="E222">
         <v>-11</v>
-      </c>
-      <c r="E222" s="2">
-        <v>45756</v>
       </c>
       <c r="F222">
         <v>230</v>
@@ -4909,17 +4909,17 @@
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" t="s">
-        <v>0</v>
+      <c r="B223" s="2">
+        <v>45758</v>
       </c>
       <c r="C223" t="s">
-        <v>5</v>
-      </c>
-      <c r="D223">
+        <v>6</v>
+      </c>
+      <c r="D223" t="s">
+        <v>11</v>
+      </c>
+      <c r="E223">
         <v>-11</v>
-      </c>
-      <c r="E223" s="2">
-        <v>45758</v>
       </c>
       <c r="F223">
         <v>231</v>
@@ -4929,17 +4929,17 @@
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" t="s">
-        <v>0</v>
+      <c r="B224" s="2">
+        <v>45758</v>
       </c>
       <c r="C224" t="s">
-        <v>5</v>
-      </c>
-      <c r="D224">
+        <v>6</v>
+      </c>
+      <c r="D224" t="s">
+        <v>11</v>
+      </c>
+      <c r="E224">
         <v>-14</v>
-      </c>
-      <c r="E224" s="2">
-        <v>45758</v>
       </c>
       <c r="F224">
         <v>232</v>
@@ -4949,17 +4949,17 @@
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
-        <v>3</v>
+      <c r="B225" s="2">
+        <v>45758</v>
       </c>
       <c r="C225" t="s">
-        <v>6</v>
-      </c>
-      <c r="D225">
+        <v>9</v>
+      </c>
+      <c r="D225" t="s">
+        <v>12</v>
+      </c>
+      <c r="E225">
         <v>-15</v>
-      </c>
-      <c r="E225" s="2">
-        <v>45758</v>
       </c>
       <c r="F225">
         <v>233</v>
@@ -4969,17 +4969,17 @@
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" t="s">
-        <v>0</v>
+      <c r="B226" s="2">
+        <v>45759</v>
       </c>
       <c r="C226" t="s">
-        <v>5</v>
-      </c>
-      <c r="D226">
+        <v>6</v>
+      </c>
+      <c r="D226" t="s">
+        <v>11</v>
+      </c>
+      <c r="E226">
         <v>-11</v>
-      </c>
-      <c r="E226" s="2">
-        <v>45759</v>
       </c>
       <c r="F226">
         <v>234</v>
@@ -4989,17 +4989,17 @@
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" t="s">
-        <v>3</v>
+      <c r="B227" s="2">
+        <v>45759</v>
       </c>
       <c r="C227" t="s">
-        <v>7</v>
-      </c>
-      <c r="D227">
+        <v>9</v>
+      </c>
+      <c r="D227" t="s">
+        <v>13</v>
+      </c>
+      <c r="E227">
         <v>-56</v>
-      </c>
-      <c r="E227" s="2">
-        <v>45759</v>
       </c>
       <c r="F227">
         <v>235</v>
@@ -5009,17 +5009,17 @@
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" t="s">
-        <v>3</v>
+      <c r="B228" s="2">
+        <v>45760</v>
       </c>
       <c r="C228" t="s">
-        <v>4</v>
-      </c>
-      <c r="D228">
+        <v>9</v>
+      </c>
+      <c r="D228" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228">
         <v>-11</v>
-      </c>
-      <c r="E228" s="2">
-        <v>45760</v>
       </c>
       <c r="F228">
         <v>236</v>
@@ -5029,17 +5029,17 @@
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" t="s">
-        <v>3</v>
+      <c r="B229" s="2">
+        <v>45760</v>
       </c>
       <c r="C229" t="s">
-        <v>4</v>
-      </c>
-      <c r="D229">
+        <v>9</v>
+      </c>
+      <c r="D229" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229">
         <v>-11</v>
-      </c>
-      <c r="E229" s="2">
-        <v>45760</v>
       </c>
       <c r="F229">
         <v>237</v>
@@ -5049,17 +5049,17 @@
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" t="s">
-        <v>0</v>
+      <c r="B230" s="2">
+        <v>45760</v>
       </c>
       <c r="C230" t="s">
-        <v>5</v>
-      </c>
-      <c r="D230">
+        <v>6</v>
+      </c>
+      <c r="D230" t="s">
+        <v>11</v>
+      </c>
+      <c r="E230">
         <v>-17</v>
-      </c>
-      <c r="E230" s="2">
-        <v>45760</v>
       </c>
       <c r="F230">
         <v>238</v>
@@ -5069,17 +5069,17 @@
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" t="s">
-        <v>0</v>
+      <c r="B231" s="2">
+        <v>45761</v>
       </c>
       <c r="C231" t="s">
-        <v>1</v>
-      </c>
-      <c r="D231">
+        <v>6</v>
+      </c>
+      <c r="D231" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231">
         <v>-1.5</v>
-      </c>
-      <c r="E231" s="2">
-        <v>45761</v>
       </c>
       <c r="F231">
         <v>239</v>
@@ -5089,17 +5089,17 @@
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" t="s">
-        <v>0</v>
+      <c r="B232" s="2">
+        <v>45761</v>
       </c>
       <c r="C232" t="s">
-        <v>2</v>
-      </c>
-      <c r="D232">
+        <v>6</v>
+      </c>
+      <c r="D232" t="s">
+        <v>8</v>
+      </c>
+      <c r="E232">
         <v>-2.5</v>
-      </c>
-      <c r="E232" s="2">
-        <v>45761</v>
       </c>
       <c r="F232">
         <v>240</v>
@@ -5109,17 +5109,17 @@
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" t="s">
-        <v>3</v>
+      <c r="B233" s="2">
+        <v>45762</v>
       </c>
       <c r="C233" t="s">
-        <v>4</v>
-      </c>
-      <c r="D233">
+        <v>9</v>
+      </c>
+      <c r="D233" t="s">
+        <v>10</v>
+      </c>
+      <c r="E233">
         <v>-15</v>
-      </c>
-      <c r="E233" s="2">
-        <v>45762</v>
       </c>
       <c r="F233">
         <v>241</v>
@@ -5129,17 +5129,17 @@
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" t="s">
-        <v>0</v>
+      <c r="B234" s="2">
+        <v>45763</v>
       </c>
       <c r="C234" t="s">
-        <v>1</v>
-      </c>
-      <c r="D234">
+        <v>6</v>
+      </c>
+      <c r="D234" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234">
         <v>-1.5</v>
-      </c>
-      <c r="E234" s="2">
-        <v>45763</v>
       </c>
       <c r="F234">
         <v>242</v>
@@ -5149,17 +5149,17 @@
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" t="s">
-        <v>3</v>
+      <c r="B235" s="2">
+        <v>45763</v>
       </c>
       <c r="C235" t="s">
-        <v>4</v>
-      </c>
-      <c r="D235">
+        <v>9</v>
+      </c>
+      <c r="D235" t="s">
+        <v>10</v>
+      </c>
+      <c r="E235">
         <v>-13</v>
-      </c>
-      <c r="E235" s="2">
-        <v>45763</v>
       </c>
       <c r="F235">
         <v>243</v>
@@ -5169,17 +5169,17 @@
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" t="s">
-        <v>3</v>
+      <c r="B236" s="2">
+        <v>45763</v>
       </c>
       <c r="C236" t="s">
-        <v>7</v>
-      </c>
-      <c r="D236">
+        <v>9</v>
+      </c>
+      <c r="D236" t="s">
+        <v>13</v>
+      </c>
+      <c r="E236">
         <v>-76</v>
-      </c>
-      <c r="E236" s="2">
-        <v>45763</v>
       </c>
       <c r="F236">
         <v>244</v>
@@ -5189,17 +5189,17 @@
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" t="s">
-        <v>0</v>
+      <c r="B237" s="2">
+        <v>45764</v>
       </c>
       <c r="C237" t="s">
-        <v>2</v>
-      </c>
-      <c r="D237">
+        <v>6</v>
+      </c>
+      <c r="D237" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237">
         <v>-2</v>
-      </c>
-      <c r="E237" s="2">
-        <v>45764</v>
       </c>
       <c r="F237">
         <v>245</v>
@@ -5209,17 +5209,17 @@
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" t="s">
-        <v>0</v>
+      <c r="B238" s="2">
+        <v>45764</v>
       </c>
       <c r="C238" t="s">
-        <v>5</v>
-      </c>
-      <c r="D238">
+        <v>6</v>
+      </c>
+      <c r="D238" t="s">
+        <v>11</v>
+      </c>
+      <c r="E238">
         <v>-11</v>
-      </c>
-      <c r="E238" s="2">
-        <v>45764</v>
       </c>
       <c r="F238">
         <v>246</v>
@@ -5229,17 +5229,17 @@
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" t="s">
-        <v>0</v>
+      <c r="B239" s="2">
+        <v>45764</v>
       </c>
       <c r="C239" t="s">
-        <v>5</v>
-      </c>
-      <c r="D239">
+        <v>6</v>
+      </c>
+      <c r="D239" t="s">
+        <v>11</v>
+      </c>
+      <c r="E239">
         <v>-20</v>
-      </c>
-      <c r="E239" s="2">
-        <v>45764</v>
       </c>
       <c r="F239">
         <v>247</v>
@@ -5249,17 +5249,17 @@
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" t="s">
-        <v>0</v>
+      <c r="B240" s="2">
+        <v>45765</v>
       </c>
       <c r="C240" t="s">
-        <v>1</v>
-      </c>
-      <c r="D240">
+        <v>6</v>
+      </c>
+      <c r="D240" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240">
         <v>-1.5</v>
-      </c>
-      <c r="E240" s="2">
-        <v>45765</v>
       </c>
       <c r="F240">
         <v>248</v>
@@ -5269,17 +5269,17 @@
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" t="s">
-        <v>3</v>
+      <c r="B241" s="2">
+        <v>45766</v>
       </c>
       <c r="C241" t="s">
-        <v>4</v>
-      </c>
-      <c r="D241">
+        <v>9</v>
+      </c>
+      <c r="D241" t="s">
+        <v>10</v>
+      </c>
+      <c r="E241">
         <v>-15</v>
-      </c>
-      <c r="E241" s="2">
-        <v>45766</v>
       </c>
       <c r="F241">
         <v>249</v>
@@ -5289,17 +5289,17 @@
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" t="s">
-        <v>3</v>
+      <c r="B242" s="2">
+        <v>45767</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
-      </c>
-      <c r="D242">
+        <v>9</v>
+      </c>
+      <c r="D242" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242">
         <v>-12</v>
-      </c>
-      <c r="E242" s="2">
-        <v>45767</v>
       </c>
       <c r="F242">
         <v>250</v>
@@ -5309,17 +5309,17 @@
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" t="s">
-        <v>0</v>
+      <c r="B243" s="2">
+        <v>45768</v>
       </c>
       <c r="C243" t="s">
-        <v>1</v>
-      </c>
-      <c r="D243">
+        <v>6</v>
+      </c>
+      <c r="D243" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243">
         <v>-2</v>
-      </c>
-      <c r="E243" s="2">
-        <v>45768</v>
       </c>
       <c r="F243">
         <v>252</v>
@@ -5329,17 +5329,17 @@
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" t="s">
-        <v>0</v>
+      <c r="B244" s="2">
+        <v>45768</v>
       </c>
       <c r="C244" t="s">
-        <v>2</v>
-      </c>
-      <c r="D244">
+        <v>6</v>
+      </c>
+      <c r="D244" t="s">
+        <v>8</v>
+      </c>
+      <c r="E244">
         <v>-2.5</v>
-      </c>
-      <c r="E244" s="2">
-        <v>45768</v>
       </c>
       <c r="F244">
         <v>253</v>
@@ -5349,17 +5349,17 @@
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" t="s">
-        <v>0</v>
+      <c r="B245" s="2">
+        <v>45768</v>
       </c>
       <c r="C245" t="s">
-        <v>5</v>
-      </c>
-      <c r="D245">
+        <v>6</v>
+      </c>
+      <c r="D245" t="s">
+        <v>11</v>
+      </c>
+      <c r="E245">
         <v>-14</v>
-      </c>
-      <c r="E245" s="2">
-        <v>45768</v>
       </c>
       <c r="F245">
         <v>254</v>
@@ -5369,17 +5369,17 @@
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" t="s">
-        <v>0</v>
+      <c r="B246" s="2">
+        <v>45769</v>
       </c>
       <c r="C246" t="s">
-        <v>5</v>
-      </c>
-      <c r="D246">
+        <v>6</v>
+      </c>
+      <c r="D246" t="s">
+        <v>11</v>
+      </c>
+      <c r="E246">
         <v>-15</v>
-      </c>
-      <c r="E246" s="2">
-        <v>45769</v>
       </c>
       <c r="F246">
         <v>255</v>
@@ -5389,17 +5389,17 @@
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" t="s">
-        <v>3</v>
+      <c r="B247" s="2">
+        <v>45769</v>
       </c>
       <c r="C247" t="s">
-        <v>7</v>
-      </c>
-      <c r="D247">
+        <v>9</v>
+      </c>
+      <c r="D247" t="s">
+        <v>13</v>
+      </c>
+      <c r="E247">
         <v>-56</v>
-      </c>
-      <c r="E247" s="2">
-        <v>45769</v>
       </c>
       <c r="F247">
         <v>256</v>
@@ -5409,17 +5409,17 @@
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" t="s">
-        <v>0</v>
+      <c r="B248" s="2">
+        <v>45770</v>
       </c>
       <c r="C248" t="s">
-        <v>1</v>
-      </c>
-      <c r="D248">
+        <v>6</v>
+      </c>
+      <c r="D248" t="s">
+        <v>7</v>
+      </c>
+      <c r="E248">
         <v>-1.5</v>
-      </c>
-      <c r="E248" s="2">
-        <v>45770</v>
       </c>
       <c r="F248">
         <v>257</v>
@@ -5429,17 +5429,17 @@
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" t="s">
-        <v>0</v>
+      <c r="B249" s="2">
+        <v>45770</v>
       </c>
       <c r="C249" t="s">
-        <v>1</v>
-      </c>
-      <c r="D249">
+        <v>6</v>
+      </c>
+      <c r="D249" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249">
         <v>-2</v>
-      </c>
-      <c r="E249" s="2">
-        <v>45770</v>
       </c>
       <c r="F249">
         <v>258</v>
@@ -5449,17 +5449,17 @@
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" t="s">
-        <v>0</v>
+      <c r="B250" s="2">
+        <v>45771</v>
       </c>
       <c r="C250" t="s">
-        <v>1</v>
-      </c>
-      <c r="D250">
+        <v>6</v>
+      </c>
+      <c r="D250" t="s">
+        <v>7</v>
+      </c>
+      <c r="E250">
         <v>-3</v>
-      </c>
-      <c r="E250" s="2">
-        <v>45771</v>
       </c>
       <c r="F250">
         <v>259</v>
@@ -5469,17 +5469,17 @@
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" t="s">
-        <v>3</v>
+      <c r="B251" s="2">
+        <v>45771</v>
       </c>
       <c r="C251" t="s">
-        <v>4</v>
-      </c>
-      <c r="D251">
+        <v>9</v>
+      </c>
+      <c r="D251" t="s">
+        <v>10</v>
+      </c>
+      <c r="E251">
         <v>-10</v>
-      </c>
-      <c r="E251" s="2">
-        <v>45771</v>
       </c>
       <c r="F251">
         <v>260</v>
@@ -5489,17 +5489,17 @@
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" t="s">
-        <v>0</v>
+      <c r="B252" s="2">
+        <v>45771</v>
       </c>
       <c r="C252" t="s">
-        <v>5</v>
-      </c>
-      <c r="D252">
+        <v>6</v>
+      </c>
+      <c r="D252" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252">
         <v>-16</v>
-      </c>
-      <c r="E252" s="2">
-        <v>45771</v>
       </c>
       <c r="F252">
         <v>261</v>
@@ -5509,17 +5509,17 @@
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" t="s">
-        <v>0</v>
+      <c r="B253" s="3">
+        <v>45773</v>
       </c>
       <c r="C253" t="s">
-        <v>1</v>
-      </c>
-      <c r="D253">
+        <v>6</v>
+      </c>
+      <c r="D253" t="s">
+        <v>7</v>
+      </c>
+      <c r="E253">
         <v>-2.5</v>
-      </c>
-      <c r="E253" s="3">
-        <v>45773</v>
       </c>
       <c r="F253">
         <v>262</v>
@@ -5529,17 +5529,17 @@
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" t="s">
-        <v>0</v>
+      <c r="B254" s="3">
+        <v>45773</v>
       </c>
       <c r="C254" t="s">
-        <v>1</v>
-      </c>
-      <c r="D254">
+        <v>6</v>
+      </c>
+      <c r="D254" t="s">
+        <v>7</v>
+      </c>
+      <c r="E254">
         <v>-3</v>
-      </c>
-      <c r="E254" s="3">
-        <v>45773</v>
       </c>
       <c r="F254">
         <v>263</v>
@@ -5549,17 +5549,17 @@
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" t="s">
-        <v>0</v>
+      <c r="B255" s="3">
+        <v>45775</v>
       </c>
       <c r="C255" t="s">
-        <v>2</v>
-      </c>
-      <c r="D255">
+        <v>6</v>
+      </c>
+      <c r="D255" t="s">
+        <v>8</v>
+      </c>
+      <c r="E255">
         <v>-2</v>
-      </c>
-      <c r="E255" s="3">
-        <v>45775</v>
       </c>
       <c r="F255">
         <v>264</v>
@@ -5569,17 +5569,17 @@
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" t="s">
-        <v>0</v>
+      <c r="B256" s="3">
+        <v>45776</v>
       </c>
       <c r="C256" t="s">
-        <v>1</v>
-      </c>
-      <c r="D256">
+        <v>6</v>
+      </c>
+      <c r="D256" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256">
         <v>-2</v>
-      </c>
-      <c r="E256" s="3">
-        <v>45776</v>
       </c>
       <c r="F256">
         <v>265</v>
@@ -5589,17 +5589,17 @@
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" t="s">
-        <v>0</v>
+      <c r="B257" s="3">
+        <v>45776</v>
       </c>
       <c r="C257" t="s">
-        <v>1</v>
-      </c>
-      <c r="D257">
+        <v>6</v>
+      </c>
+      <c r="D257" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257">
         <v>-2.5</v>
-      </c>
-      <c r="E257" s="3">
-        <v>45776</v>
       </c>
       <c r="F257">
         <v>266</v>
@@ -5609,17 +5609,17 @@
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" t="s">
-        <v>0</v>
+      <c r="B258" s="3">
+        <v>45776</v>
       </c>
       <c r="C258" t="s">
-        <v>1</v>
-      </c>
-      <c r="D258">
+        <v>6</v>
+      </c>
+      <c r="D258" t="s">
+        <v>7</v>
+      </c>
+      <c r="E258">
         <v>-2.5</v>
-      </c>
-      <c r="E258" s="3">
-        <v>45776</v>
       </c>
       <c r="F258">
         <v>267</v>
@@ -5629,17 +5629,17 @@
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" t="s">
-        <v>0</v>
+      <c r="B259" s="3">
+        <v>45776</v>
       </c>
       <c r="C259" t="s">
-        <v>1</v>
-      </c>
-      <c r="D259">
+        <v>6</v>
+      </c>
+      <c r="D259" t="s">
+        <v>7</v>
+      </c>
+      <c r="E259">
         <v>-3</v>
-      </c>
-      <c r="E259" s="3">
-        <v>45776</v>
       </c>
       <c r="F259">
         <v>268</v>
@@ -5649,17 +5649,17 @@
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" t="s">
-        <v>0</v>
+      <c r="B260" s="3">
+        <v>45776</v>
       </c>
       <c r="C260" t="s">
-        <v>1</v>
-      </c>
-      <c r="D260">
+        <v>6</v>
+      </c>
+      <c r="D260" t="s">
+        <v>7</v>
+      </c>
+      <c r="E260">
         <v>-3</v>
-      </c>
-      <c r="E260" s="3">
-        <v>45776</v>
       </c>
       <c r="F260">
         <v>269</v>
@@ -5669,17 +5669,17 @@
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" t="s">
-        <v>0</v>
+      <c r="B261" s="3">
+        <v>45777</v>
       </c>
       <c r="C261" t="s">
-        <v>1</v>
-      </c>
-      <c r="D261">
+        <v>6</v>
+      </c>
+      <c r="D261" t="s">
+        <v>7</v>
+      </c>
+      <c r="E261">
         <v>-2.5</v>
-      </c>
-      <c r="E261" s="3">
-        <v>45777</v>
       </c>
       <c r="F261">
         <v>270</v>
@@ -5689,17 +5689,17 @@
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" t="s">
-        <v>3</v>
+      <c r="B262" s="3">
+        <v>45777</v>
       </c>
       <c r="C262" t="s">
-        <v>4</v>
-      </c>
-      <c r="D262">
+        <v>9</v>
+      </c>
+      <c r="D262" t="s">
+        <v>10</v>
+      </c>
+      <c r="E262">
         <v>-11</v>
-      </c>
-      <c r="E262" s="3">
-        <v>45777</v>
       </c>
       <c r="F262">
         <v>271</v>
@@ -5709,17 +5709,17 @@
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" t="s">
-        <v>3</v>
+      <c r="B263" s="3">
+        <v>45777</v>
       </c>
       <c r="C263" t="s">
-        <v>6</v>
-      </c>
-      <c r="D263">
+        <v>9</v>
+      </c>
+      <c r="D263" t="s">
+        <v>12</v>
+      </c>
+      <c r="E263">
         <v>-13</v>
-      </c>
-      <c r="E263" s="3">
-        <v>45777</v>
       </c>
       <c r="F263">
         <v>272</v>
@@ -5729,17 +5729,17 @@
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" t="s">
-        <v>8</v>
+      <c r="B264" s="3">
+        <v>45777</v>
       </c>
       <c r="C264" t="s">
-        <v>9</v>
-      </c>
-      <c r="D264">
+        <v>14</v>
+      </c>
+      <c r="D264" t="s">
+        <v>15</v>
+      </c>
+      <c r="E264">
         <v>-1000</v>
-      </c>
-      <c r="E264" s="3">
-        <v>45777</v>
       </c>
       <c r="F264">
         <v>273</v>
@@ -5749,17 +5749,17 @@
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" t="s">
-        <v>10</v>
+      <c r="B265" s="3">
+        <v>45777</v>
       </c>
       <c r="C265" t="s">
-        <v>11</v>
-      </c>
-      <c r="D265">
+        <v>16</v>
+      </c>
+      <c r="D265" t="s">
+        <v>17</v>
+      </c>
+      <c r="E265">
         <v>-29.98</v>
-      </c>
-      <c r="E265" s="3">
-        <v>45777</v>
       </c>
       <c r="F265">
         <v>274</v>
@@ -5769,17 +5769,17 @@
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" t="s">
-        <v>12</v>
+      <c r="B266" s="3">
+        <v>45777</v>
       </c>
       <c r="C266" t="s">
-        <v>13</v>
-      </c>
-      <c r="D266">
+        <v>18</v>
+      </c>
+      <c r="D266" t="s">
+        <v>19</v>
+      </c>
+      <c r="E266">
         <v>-48.9</v>
-      </c>
-      <c r="E266" s="3">
-        <v>45777</v>
       </c>
       <c r="F266">
         <v>275</v>
@@ -5789,17 +5789,17 @@
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" t="s">
-        <v>12</v>
+      <c r="B267" s="3">
+        <v>45777</v>
       </c>
       <c r="C267" t="s">
-        <v>14</v>
-      </c>
-      <c r="D267">
+        <v>18</v>
+      </c>
+      <c r="D267" t="s">
+        <v>20</v>
+      </c>
+      <c r="E267">
         <v>-60.5</v>
-      </c>
-      <c r="E267" s="3">
-        <v>45777</v>
       </c>
       <c r="F267">
         <v>276</v>
@@ -5809,17 +5809,17 @@
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" t="s">
-        <v>12</v>
+      <c r="B268" s="3">
+        <v>45777</v>
       </c>
       <c r="C268" t="s">
-        <v>15</v>
-      </c>
-      <c r="D268">
+        <v>18</v>
+      </c>
+      <c r="D268" t="s">
+        <v>21</v>
+      </c>
+      <c r="E268">
         <v>-22</v>
-      </c>
-      <c r="E268" s="3">
-        <v>45777</v>
       </c>
       <c r="F268">
         <v>277</v>
